--- a/Code/Results/Cases/Case_5_32/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_32/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9738035172681555</v>
+        <v>0.9991916969358107</v>
       </c>
       <c r="D2">
-        <v>0.9975537714284182</v>
+        <v>1.021132015036407</v>
       </c>
       <c r="E2">
-        <v>0.981397311153964</v>
+        <v>1.003282633302334</v>
       </c>
       <c r="F2">
-        <v>0.9700611319943653</v>
+        <v>1.020803809268952</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035276602361552</v>
+        <v>1.047241201549588</v>
       </c>
       <c r="J2">
-        <v>0.9967970247134045</v>
+        <v>1.021396611117006</v>
       </c>
       <c r="K2">
-        <v>1.009047291632599</v>
+        <v>1.032304592920732</v>
       </c>
       <c r="L2">
-        <v>0.993122042320686</v>
+        <v>1.014696424489247</v>
       </c>
       <c r="M2">
-        <v>0.9819539442831197</v>
+        <v>1.031980726947127</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9845912058136069</v>
+        <v>1.009086897700328</v>
       </c>
       <c r="D3">
-        <v>1.005885114414257</v>
+        <v>1.029084814567774</v>
       </c>
       <c r="E3">
-        <v>0.9909848722058437</v>
+        <v>1.011867968988423</v>
       </c>
       <c r="F3">
-        <v>0.981895396106131</v>
+        <v>1.029764362145005</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038998826994297</v>
+        <v>1.050786223714279</v>
       </c>
       <c r="J3">
-        <v>1.005510929777673</v>
+        <v>1.029332873071047</v>
       </c>
       <c r="K3">
-        <v>1.016443243858047</v>
+        <v>1.039358598063641</v>
       </c>
       <c r="L3">
-        <v>1.001734417835555</v>
+        <v>1.022351216004994</v>
       </c>
       <c r="M3">
-        <v>0.992765292600598</v>
+        <v>1.040030056262164</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9912603069427387</v>
+        <v>1.01523983046188</v>
       </c>
       <c r="D4">
-        <v>1.011038523706363</v>
+        <v>1.034033150965177</v>
       </c>
       <c r="E4">
-        <v>0.9969133983631852</v>
+        <v>1.017207211266479</v>
       </c>
       <c r="F4">
-        <v>0.9892171057875613</v>
+        <v>1.035344417047548</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04128123654176</v>
+        <v>1.052973830861434</v>
       </c>
       <c r="J4">
-        <v>1.010890248252219</v>
+        <v>1.034261573434498</v>
       </c>
       <c r="K4">
-        <v>1.021005524298908</v>
+        <v>1.043737470137683</v>
       </c>
       <c r="L4">
-        <v>1.007049219254184</v>
+        <v>1.027102303185776</v>
       </c>
       <c r="M4">
-        <v>0.9994474369119375</v>
+        <v>1.045034189391634</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C5">
-        <v>0.9939957282005256</v>
+        <v>1.017771100463539</v>
       </c>
       <c r="D5">
-        <v>1.01315271961464</v>
+        <v>1.036069455824082</v>
       </c>
       <c r="E5">
-        <v>0.9993452761181254</v>
+        <v>1.0194038146485</v>
       </c>
       <c r="F5">
-        <v>0.9922216432811046</v>
+        <v>1.037641836684439</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042212800738946</v>
+        <v>1.053869694104732</v>
       </c>
       <c r="J5">
-        <v>1.013094706475532</v>
+        <v>1.036287641551734</v>
       </c>
       <c r="K5">
-        <v>1.022874266884209</v>
+        <v>1.045537014396347</v>
       </c>
       <c r="L5">
-        <v>1.00922681075097</v>
+        <v>1.029054685865518</v>
       </c>
       <c r="M5">
-        <v>1.002187879150356</v>
+        <v>1.047092472570119</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9944511800906459</v>
+        <v>1.018192980555798</v>
       </c>
       <c r="D6">
-        <v>1.01350475715485</v>
+        <v>1.036408871770727</v>
       </c>
       <c r="E6">
-        <v>0.9997501970641048</v>
+        <v>1.019769918395176</v>
       </c>
       <c r="F6">
-        <v>0.9927219907575665</v>
+        <v>1.0380248446333</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042367634200082</v>
+        <v>1.054018761437168</v>
       </c>
       <c r="J6">
-        <v>1.013461635651441</v>
+        <v>1.036625226686685</v>
       </c>
       <c r="K6">
-        <v>1.023185262294541</v>
+        <v>1.045836825146369</v>
       </c>
       <c r="L6">
-        <v>1.009589243230669</v>
+        <v>1.029379953911676</v>
       </c>
       <c r="M6">
-        <v>1.002644149041707</v>
+        <v>1.047435495195287</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9912971183999987</v>
+        <v>1.015273865741608</v>
       </c>
       <c r="D7">
-        <v>1.011066973606292</v>
+        <v>1.034060528828703</v>
       </c>
       <c r="E7">
-        <v>0.9969461242294588</v>
+        <v>1.017236746465854</v>
       </c>
       <c r="F7">
-        <v>0.989257532994738</v>
+        <v>1.035375300949305</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041293791286628</v>
+        <v>1.052985892955643</v>
       </c>
       <c r="J7">
-        <v>1.010919922178812</v>
+        <v>1.034288822108571</v>
       </c>
       <c r="K7">
-        <v>1.021030682826763</v>
+        <v>1.043761674332912</v>
       </c>
       <c r="L7">
-        <v>1.007078533210793</v>
+        <v>1.027128563529155</v>
       </c>
       <c r="M7">
-        <v>0.9994843171811878</v>
+        <v>1.045061866596898</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9775177604993878</v>
+        <v>1.002590399701376</v>
       </c>
       <c r="D8">
-        <v>1.000421524678414</v>
+        <v>1.023862767076474</v>
       </c>
       <c r="E8">
-        <v>0.9846979800521383</v>
+        <v>1.006231194332705</v>
       </c>
       <c r="F8">
-        <v>0.9741345852311928</v>
+        <v>1.023879619418955</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036562104098549</v>
+        <v>1.048462304674488</v>
       </c>
       <c r="J8">
-        <v>0.9997988516612707</v>
+        <v>1.024123725894137</v>
       </c>
       <c r="K8">
-        <v>1.011595789170203</v>
+        <v>1.034728919635746</v>
       </c>
       <c r="L8">
-        <v>0.9960892955542784</v>
+        <v>1.017327416536495</v>
       </c>
       <c r="M8">
-        <v>0.9856767057952704</v>
+        <v>1.034745556813374</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9505159694153813</v>
+        <v>0.9780957348384541</v>
       </c>
       <c r="D9">
-        <v>0.979597999366935</v>
+        <v>1.004204745222334</v>
       </c>
       <c r="E9">
-        <v>0.9607147836725406</v>
+        <v>0.9849898411028348</v>
       </c>
       <c r="F9">
-        <v>0.9445413146865603</v>
+        <v>1.00175677325988</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027138208688617</v>
+        <v>1.039592185052464</v>
       </c>
       <c r="J9">
-        <v>0.9779458637911651</v>
+        <v>1.004446428426847</v>
       </c>
       <c r="K9">
-        <v>0.9930309912784652</v>
+        <v>1.017229969751289</v>
       </c>
       <c r="L9">
-        <v>0.9744791041942334</v>
+        <v>0.9983312344830144</v>
       </c>
       <c r="M9">
-        <v>0.9586031764130366</v>
+        <v>1.014821412201508</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.930093978022338</v>
+        <v>0.9599360393149113</v>
       </c>
       <c r="D10">
-        <v>0.9638974980722554</v>
+        <v>0.9896719169687451</v>
       </c>
       <c r="E10">
-        <v>0.942600232030058</v>
+        <v>0.969261752577227</v>
       </c>
       <c r="F10">
-        <v>0.922177413659084</v>
+        <v>0.9854246548593886</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.019915206645378</v>
+        <v>1.032931609160527</v>
       </c>
       <c r="J10">
-        <v>0.9613846003343022</v>
+        <v>0.9898346059533257</v>
       </c>
       <c r="K10">
-        <v>0.9789506938122619</v>
+        <v>1.004230186073682</v>
       </c>
       <c r="L10">
-        <v>0.9580894193796183</v>
+        <v>0.9842090960982539</v>
       </c>
       <c r="M10">
-        <v>0.9381099009376858</v>
+        <v>1.000062154578075</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9204948023133304</v>
+        <v>0.9515266549793316</v>
       </c>
       <c r="D11">
-        <v>0.9565360653866242</v>
+        <v>0.9829564154016538</v>
       </c>
       <c r="E11">
-        <v>0.9340951031521852</v>
+        <v>0.961986211210723</v>
       </c>
       <c r="F11">
-        <v>0.9116663600017324</v>
+        <v>0.9778824544476159</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.016500109909177</v>
+        <v>1.029829266004562</v>
       </c>
       <c r="J11">
-        <v>0.9535946788461045</v>
+        <v>0.9830648969973638</v>
       </c>
       <c r="K11">
-        <v>0.9723269893375072</v>
+        <v>0.9982070689316769</v>
       </c>
       <c r="L11">
-        <v>0.9503769562386478</v>
+        <v>0.9776624732764431</v>
       </c>
       <c r="M11">
-        <v>0.9284713445010017</v>
+        <v>0.9932338866340287</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9167947145926888</v>
+        <v>0.9483088983396356</v>
       </c>
       <c r="D12">
-        <v>0.9537020531683778</v>
+        <v>0.9803894374810319</v>
       </c>
       <c r="E12">
-        <v>0.9308185522024428</v>
+        <v>0.9592038143681941</v>
       </c>
       <c r="F12">
-        <v>0.9076145138799597</v>
+        <v>0.9750001121769587</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.015181033788715</v>
+        <v>1.028639715329572</v>
       </c>
       <c r="J12">
-        <v>0.9505914477718401</v>
+        <v>0.9804743016949612</v>
       </c>
       <c r="K12">
-        <v>0.9697734556441364</v>
+        <v>0.9959022422243919</v>
       </c>
       <c r="L12">
-        <v>0.9474030742269126</v>
+        <v>0.9751566871646994</v>
       </c>
       <c r="M12">
-        <v>0.9247549832995182</v>
+        <v>0.9906224721564678</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9175948840965358</v>
+        <v>0.949003601053217</v>
       </c>
       <c r="D13">
-        <v>0.954314755791511</v>
+        <v>0.9809435120462464</v>
       </c>
       <c r="E13">
-        <v>0.931527039160159</v>
+        <v>0.959804450396459</v>
       </c>
       <c r="F13">
-        <v>0.9084907733228988</v>
+        <v>0.9756222297412168</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.015466408765706</v>
+        <v>1.028896642659942</v>
       </c>
       <c r="J13">
-        <v>0.9512409360861152</v>
+        <v>0.9810336087741255</v>
       </c>
       <c r="K13">
-        <v>0.9703256832803077</v>
+        <v>0.9963998471935376</v>
       </c>
       <c r="L13">
-        <v>0.948046238932316</v>
+        <v>0.9756977090648867</v>
       </c>
       <c r="M13">
-        <v>0.9255587253265092</v>
+        <v>0.9911862002007337</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9201918382043491</v>
+        <v>0.9512626739295518</v>
       </c>
       <c r="D14">
-        <v>0.956303940000456</v>
+        <v>0.9827457672391461</v>
       </c>
       <c r="E14">
-        <v>0.933826778847809</v>
+        <v>0.9617579139718542</v>
       </c>
       <c r="F14">
-        <v>0.9113346019327382</v>
+        <v>0.9776459148074297</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.016392155961761</v>
+        <v>1.029731725174159</v>
       </c>
       <c r="J14">
-        <v>0.9533487824845144</v>
+        <v>0.9828523708236652</v>
       </c>
       <c r="K14">
-        <v>0.9721179098769136</v>
+        <v>0.9980179844876313</v>
       </c>
       <c r="L14">
-        <v>0.9501334733898001</v>
+        <v>0.9774569158937222</v>
       </c>
       <c r="M14">
-        <v>0.9281670713840771</v>
+        <v>0.9930196195889837</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9217733565348289</v>
+        <v>0.9526416829469642</v>
       </c>
       <c r="D15">
-        <v>0.9575158162097732</v>
+        <v>0.9838462804928584</v>
       </c>
       <c r="E15">
-        <v>0.93522754849665</v>
+        <v>0.9629505776759004</v>
       </c>
       <c r="F15">
-        <v>0.9130664156310804</v>
+        <v>0.9788817212401519</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.016955585087645</v>
+        <v>1.030241169495166</v>
       </c>
       <c r="J15">
-        <v>0.9546323787766027</v>
+        <v>0.9839625768370741</v>
       </c>
       <c r="K15">
-        <v>0.9732093242256031</v>
+        <v>0.9990057376853848</v>
       </c>
       <c r="L15">
-        <v>0.9514044501252287</v>
+        <v>0.9785306953524361</v>
       </c>
       <c r="M15">
-        <v>0.9297553774186402</v>
+        <v>0.9941389847774268</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9307134519920626</v>
+        <v>0.9604816620603963</v>
       </c>
       <c r="D16">
-        <v>0.9643729947647663</v>
+        <v>0.9901079680322036</v>
       </c>
       <c r="E16">
-        <v>0.9431493265167757</v>
+        <v>0.9697339950226596</v>
       </c>
       <c r="F16">
-        <v>0.9228557224522119</v>
+        <v>0.9859144764863574</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.020135213778824</v>
+        <v>1.033132546985644</v>
       </c>
       <c r="J16">
-        <v>0.9618872266980635</v>
+        <v>0.9902737949154562</v>
       </c>
       <c r="K16">
-        <v>0.9793780731151566</v>
+        <v>1.004620942430459</v>
       </c>
       <c r="L16">
-        <v>0.9585869797804331</v>
+        <v>0.9846337352603987</v>
       </c>
       <c r="M16">
-        <v>0.9387317805990077</v>
+        <v>1.000505352226663</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9361057802445585</v>
+        <v>0.9652454987004101</v>
       </c>
       <c r="D17">
-        <v>0.9685141533435283</v>
+        <v>0.9939167798299486</v>
       </c>
       <c r="E17">
-        <v>0.947930104879137</v>
+        <v>0.9738580507075058</v>
       </c>
       <c r="F17">
-        <v>0.9287602540606005</v>
+        <v>0.9901934836038411</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.022048128422202</v>
+        <v>1.034884957721779</v>
       </c>
       <c r="J17">
-        <v>0.966261857209983</v>
+        <v>0.9941080171383906</v>
       </c>
       <c r="K17">
-        <v>0.9830977233347605</v>
+        <v>1.008032317321262</v>
       </c>
       <c r="L17">
-        <v>0.9629171569919266</v>
+        <v>0.9883405131018292</v>
       </c>
       <c r="M17">
-        <v>0.9441443823357321</v>
+        <v>1.004375669482757</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9391797251601182</v>
+        <v>0.9679724086993365</v>
       </c>
       <c r="D18">
-        <v>0.970876496577888</v>
+        <v>0.9960983109222424</v>
       </c>
       <c r="E18">
-        <v>0.9506562681825805</v>
+        <v>0.9762194377381758</v>
       </c>
       <c r="F18">
-        <v>0.9321262976416683</v>
+        <v>0.9926447679707662</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023136746393779</v>
+        <v>1.035886390486482</v>
       </c>
       <c r="J18">
-        <v>0.9687551341449383</v>
+        <v>0.9963024771768806</v>
       </c>
       <c r="K18">
-        <v>0.985217617062858</v>
+        <v>1.009984734190936</v>
       </c>
       <c r="L18">
-        <v>0.9653848020430142</v>
+        <v>0.9904616808841827</v>
       </c>
       <c r="M18">
-        <v>0.9472293610824708</v>
+        <v>1.006591681703578</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9402163121595704</v>
+        <v>0.9688937627485606</v>
       </c>
       <c r="D19">
-        <v>0.9716733783385288</v>
+        <v>0.9968356024076871</v>
       </c>
       <c r="E19">
-        <v>0.9515757091859294</v>
+        <v>0.9770174008217434</v>
       </c>
       <c r="F19">
-        <v>0.9332614142714352</v>
+        <v>0.9934733052861502</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023503524378561</v>
+        <v>1.036224458376618</v>
       </c>
       <c r="J19">
-        <v>0.9695958145681315</v>
+        <v>0.9970438688414955</v>
       </c>
       <c r="K19">
-        <v>0.9859323811825444</v>
+        <v>1.01064434389062</v>
       </c>
       <c r="L19">
-        <v>0.9662167904024844</v>
+        <v>0.9911782511979115</v>
       </c>
       <c r="M19">
-        <v>0.9482695853056424</v>
+        <v>1.007340503013647</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9355347434604857</v>
+        <v>0.9647398166711112</v>
       </c>
       <c r="D20">
-        <v>0.968075437285731</v>
+        <v>0.9935123358337545</v>
       </c>
       <c r="E20">
-        <v>0.9474237400726175</v>
+        <v>0.973420206510493</v>
       </c>
       <c r="F20">
-        <v>0.9281349666500005</v>
+        <v>0.9897390654185814</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.021845746342835</v>
+        <v>1.034699112637876</v>
       </c>
       <c r="J20">
-        <v>0.9657986451262981</v>
+        <v>0.9937010456943858</v>
       </c>
       <c r="K20">
-        <v>0.9827038719629902</v>
+        <v>1.007670230396995</v>
       </c>
       <c r="L20">
-        <v>0.9624586829674066</v>
+        <v>0.9879471054017218</v>
       </c>
       <c r="M20">
-        <v>0.9435712545079089</v>
+        <v>1.003964772924496</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9194310109887082</v>
+        <v>0.9506001422482101</v>
       </c>
       <c r="D21">
-        <v>0.9557210676578543</v>
+        <v>0.9822171328303596</v>
       </c>
       <c r="E21">
-        <v>0.9331529726118548</v>
+        <v>0.961184965865893</v>
       </c>
       <c r="F21">
-        <v>0.9105014592191958</v>
+        <v>0.9770523141254329</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.016121011562231</v>
+        <v>1.029486881314036</v>
       </c>
       <c r="J21">
-        <v>0.9527312607641759</v>
+        <v>0.982318976094761</v>
       </c>
       <c r="K21">
-        <v>0.9715928489447352</v>
+        <v>0.9975434249013621</v>
       </c>
       <c r="L21">
-        <v>0.9495220044444359</v>
+        <v>0.9769410023794056</v>
       </c>
       <c r="M21">
-        <v>0.9274029385562194</v>
+        <v>0.992481881605477</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.908512453097975</v>
+        <v>0.9411572316002883</v>
       </c>
       <c r="D22">
-        <v>0.9473659604850536</v>
+        <v>0.9746896666134777</v>
       </c>
       <c r="E22">
-        <v>0.9234882873394311</v>
+        <v>0.953022993794131</v>
       </c>
       <c r="F22">
-        <v>0.8985438121657989</v>
+        <v>0.9686011897588911</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.012223811669026</v>
+        <v>1.025991567409787</v>
       </c>
       <c r="J22">
-        <v>0.9438684123915085</v>
+        <v>0.9747164175566762</v>
       </c>
       <c r="K22">
-        <v>0.9640575469453867</v>
+        <v>0.9907797720472823</v>
       </c>
       <c r="L22">
-        <v>0.9407447550108579</v>
+        <v>0.9695862764231354</v>
       </c>
       <c r="M22">
-        <v>0.9164339620516164</v>
+        <v>0.9848214244400502</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9143844581271995</v>
+        <v>0.9462202634533066</v>
       </c>
       <c r="D23">
-        <v>0.9518570649424479</v>
+        <v>0.9787240315475232</v>
       </c>
       <c r="E23">
-        <v>0.9286847656731319</v>
+        <v>0.9573982432506354</v>
       </c>
       <c r="F23">
-        <v>0.9049749831590282</v>
+        <v>0.9731302736917228</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.01432106465707</v>
+        <v>1.027866916254494</v>
       </c>
       <c r="J23">
-        <v>0.9486350177812373</v>
+        <v>0.978792722672538</v>
       </c>
       <c r="K23">
-        <v>0.9681100316613414</v>
+        <v>0.9944061922615434</v>
       </c>
       <c r="L23">
-        <v>0.9454656153098645</v>
+        <v>0.9735300020787571</v>
       </c>
       <c r="M23">
-        <v>0.9223337852536183</v>
+        <v>0.9889278454539324</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9357929892527407</v>
+        <v>0.9649684716642611</v>
       </c>
       <c r="D24">
-        <v>0.9682738372650481</v>
+        <v>0.9936952098749352</v>
       </c>
       <c r="E24">
-        <v>0.9476527360107481</v>
+        <v>0.9736181850147754</v>
       </c>
       <c r="F24">
-        <v>0.9284177463777609</v>
+        <v>0.9899445344786523</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.021937277468355</v>
+        <v>1.034783151734486</v>
       </c>
       <c r="J24">
-        <v>0.9660081298969097</v>
+        <v>0.9938850675937734</v>
       </c>
       <c r="K24">
-        <v>0.9828819890604641</v>
+        <v>1.007833956794115</v>
       </c>
       <c r="L24">
-        <v>0.9626660259026248</v>
+        <v>0.988124995223992</v>
       </c>
       <c r="M24">
-        <v>0.9438304475721178</v>
+        <v>1.004150566883583</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9578723804323139</v>
+        <v>0.9847182405472903</v>
       </c>
       <c r="D25">
-        <v>0.9852649397079116</v>
+        <v>1.00951397942003</v>
       </c>
       <c r="E25">
-        <v>0.9672457134300771</v>
+        <v>0.9907303257660692</v>
       </c>
       <c r="F25">
-        <v>0.9525998983332499</v>
+        <v>1.007727668209969</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.02972221787132</v>
+        <v>1.042005085909365</v>
       </c>
       <c r="J25">
-        <v>0.9839057166253985</v>
+        <v>1.009771073358944</v>
       </c>
       <c r="K25">
-        <v>0.9980963880421957</v>
+        <v>1.021966376820094</v>
       </c>
       <c r="L25">
-        <v>0.980374710079811</v>
+        <v>1.003474266339061</v>
       </c>
       <c r="M25">
-        <v>0.9659814871783076</v>
+        <v>1.020207194924392</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_32/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_32/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9991916969358107</v>
+        <v>1.000997504286905</v>
       </c>
       <c r="D2">
-        <v>1.021132015036407</v>
+        <v>1.016909612665744</v>
       </c>
       <c r="E2">
-        <v>1.003282633302334</v>
+        <v>1.007010503651446</v>
       </c>
       <c r="F2">
-        <v>1.020803809268952</v>
+        <v>0.9779057652731887</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047241201549588</v>
+        <v>1.040387237289236</v>
       </c>
       <c r="J2">
-        <v>1.021396611117006</v>
+        <v>1.023148421052094</v>
       </c>
       <c r="K2">
-        <v>1.032304592920732</v>
+        <v>1.028138290952795</v>
       </c>
       <c r="L2">
-        <v>1.014696424489247</v>
+        <v>1.018373027446548</v>
       </c>
       <c r="M2">
-        <v>1.031980726947127</v>
+        <v>0.9896817379734937</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.009086897700328</v>
+        <v>1.007198303573916</v>
       </c>
       <c r="D3">
-        <v>1.029084814567774</v>
+        <v>1.021447026295932</v>
       </c>
       <c r="E3">
-        <v>1.011867968988423</v>
+        <v>1.012104771415703</v>
       </c>
       <c r="F3">
-        <v>1.029764362145005</v>
+        <v>0.9868588068491397</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050786223714279</v>
+        <v>1.042478167761292</v>
       </c>
       <c r="J3">
-        <v>1.029332873071047</v>
+        <v>1.027494640698364</v>
       </c>
       <c r="K3">
-        <v>1.039358598063641</v>
+        <v>1.03181265004325</v>
       </c>
       <c r="L3">
-        <v>1.022351216004994</v>
+        <v>1.022585077259708</v>
       </c>
       <c r="M3">
-        <v>1.040030056262164</v>
+        <v>0.9976626397014073</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.01523983046188</v>
+        <v>1.011097111957444</v>
       </c>
       <c r="D4">
-        <v>1.034033150965177</v>
+        <v>1.024302778731231</v>
       </c>
       <c r="E4">
-        <v>1.017207211266479</v>
+        <v>1.015313558544823</v>
       </c>
       <c r="F4">
-        <v>1.035344417047548</v>
+        <v>0.9924761033079107</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052973830861434</v>
+        <v>1.043781689114033</v>
       </c>
       <c r="J4">
-        <v>1.034261573434498</v>
+        <v>1.03022115002219</v>
       </c>
       <c r="K4">
-        <v>1.043737470137683</v>
+        <v>1.034116478573567</v>
       </c>
       <c r="L4">
-        <v>1.027102303185776</v>
+        <v>1.025230609953915</v>
       </c>
       <c r="M4">
-        <v>1.045034189391634</v>
+        <v>1.002666191434931</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.017771100463539</v>
+        <v>1.012710405272038</v>
       </c>
       <c r="D5">
-        <v>1.036069455824082</v>
+        <v>1.025485060072542</v>
       </c>
       <c r="E5">
-        <v>1.0194038146485</v>
+        <v>1.016642634291202</v>
       </c>
       <c r="F5">
-        <v>1.037641836684439</v>
+        <v>0.9947980906098159</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053869694104732</v>
+        <v>1.044318357319114</v>
       </c>
       <c r="J5">
-        <v>1.036287641551734</v>
+        <v>1.031347844470438</v>
       </c>
       <c r="K5">
-        <v>1.045537014396347</v>
+        <v>1.035068192341704</v>
       </c>
       <c r="L5">
-        <v>1.029054685865518</v>
+        <v>1.026324591870815</v>
       </c>
       <c r="M5">
-        <v>1.047092472570119</v>
+        <v>1.004733518475163</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.018192980555798</v>
+        <v>1.012979812351186</v>
       </c>
       <c r="D6">
-        <v>1.036408871770727</v>
+        <v>1.025682524396758</v>
       </c>
       <c r="E6">
-        <v>1.019769918395176</v>
+        <v>1.01686465436306</v>
       </c>
       <c r="F6">
-        <v>1.0380248446333</v>
+        <v>0.995185715809912</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054018761437168</v>
+        <v>1.04440781570718</v>
       </c>
       <c r="J6">
-        <v>1.036625226686685</v>
+        <v>1.031535903933241</v>
       </c>
       <c r="K6">
-        <v>1.045836825146369</v>
+        <v>1.035227026204145</v>
       </c>
       <c r="L6">
-        <v>1.029379953911676</v>
+        <v>1.026507234884412</v>
       </c>
       <c r="M6">
-        <v>1.047435495195287</v>
+        <v>1.005078573728765</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.015273865741608</v>
+        <v>1.01111876832008</v>
       </c>
       <c r="D7">
-        <v>1.034060528828703</v>
+        <v>1.024318647064259</v>
       </c>
       <c r="E7">
-        <v>1.017236746465854</v>
+        <v>1.015331394567266</v>
       </c>
       <c r="F7">
-        <v>1.035375300949305</v>
+        <v>0.9925072818658341</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052985892955643</v>
+        <v>1.043788903988977</v>
       </c>
       <c r="J7">
-        <v>1.034288822108571</v>
+        <v>1.030236280436989</v>
       </c>
       <c r="K7">
-        <v>1.043761674332912</v>
+        <v>1.03412926043966</v>
       </c>
       <c r="L7">
-        <v>1.027128563529155</v>
+        <v>1.025245298121574</v>
       </c>
       <c r="M7">
-        <v>1.045061866596898</v>
+        <v>1.002693954394593</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.002590399701376</v>
+        <v>1.003117486587164</v>
       </c>
       <c r="D8">
-        <v>1.023862767076474</v>
+        <v>1.01846025922392</v>
       </c>
       <c r="E8">
-        <v>1.006231194332705</v>
+        <v>1.008750927911829</v>
       </c>
       <c r="F8">
-        <v>1.023879619418955</v>
+        <v>0.9809695499804344</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048462304674488</v>
+        <v>1.041104434461747</v>
       </c>
       <c r="J8">
-        <v>1.024123725894137</v>
+        <v>1.024635642065801</v>
       </c>
       <c r="K8">
-        <v>1.034728919635746</v>
+        <v>1.029395848355593</v>
       </c>
       <c r="L8">
-        <v>1.017327416536495</v>
+        <v>1.019813652832137</v>
       </c>
       <c r="M8">
-        <v>1.034745556813374</v>
+        <v>0.9924136241483678</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9780957348384541</v>
+        <v>0.9880786154201697</v>
       </c>
       <c r="D9">
-        <v>1.004204745222334</v>
+        <v>1.007475869795338</v>
       </c>
       <c r="E9">
-        <v>0.9849898411028348</v>
+        <v>0.9964322187012742</v>
       </c>
       <c r="F9">
-        <v>1.00175677325988</v>
+        <v>0.9591607937381069</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039592185052464</v>
+        <v>1.035970144146144</v>
       </c>
       <c r="J9">
-        <v>1.004446428426847</v>
+        <v>1.014059487772448</v>
       </c>
       <c r="K9">
-        <v>1.017229969751289</v>
+        <v>1.020448809581681</v>
       </c>
       <c r="L9">
-        <v>0.9983312344830144</v>
+        <v>1.009583447106835</v>
       </c>
       <c r="M9">
-        <v>1.014821412201508</v>
+        <v>0.9729531362636036</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9599360393149113</v>
+        <v>0.9773107301653655</v>
       </c>
       <c r="D10">
-        <v>0.9896719169687451</v>
+        <v>0.999635439936425</v>
       </c>
       <c r="E10">
-        <v>0.969261752577227</v>
+        <v>0.9876510034435259</v>
       </c>
       <c r="F10">
-        <v>0.9854246548593886</v>
+        <v>0.9434195115659484</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032931609160527</v>
+        <v>1.032236091487988</v>
       </c>
       <c r="J10">
-        <v>0.9898346059533257</v>
+        <v>1.00645440236553</v>
       </c>
       <c r="K10">
-        <v>1.004230186073682</v>
+        <v>1.014011279748953</v>
       </c>
       <c r="L10">
-        <v>0.9842090960982539</v>
+        <v>1.002246860817581</v>
       </c>
       <c r="M10">
-        <v>1.000062154578075</v>
+        <v>0.9588914451615069</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9515266549793316</v>
+        <v>0.9724432472624281</v>
       </c>
       <c r="D11">
-        <v>0.9829564154016538</v>
+        <v>0.9960986120042397</v>
       </c>
       <c r="E11">
-        <v>0.961986211210723</v>
+        <v>0.9836921362678815</v>
       </c>
       <c r="F11">
-        <v>0.9778824544476159</v>
+        <v>0.9362623132751554</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029829266004562</v>
+        <v>1.03053499871163</v>
       </c>
       <c r="J11">
-        <v>0.9830648969973638</v>
+        <v>1.003009117442745</v>
       </c>
       <c r="K11">
-        <v>0.9982070689316769</v>
+        <v>1.011094479747551</v>
       </c>
       <c r="L11">
-        <v>0.9776624732764431</v>
+        <v>0.9989282902762519</v>
       </c>
       <c r="M11">
-        <v>0.9932338866340287</v>
+        <v>0.9524953870565019</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9483088983396356</v>
+        <v>0.9706016083117589</v>
       </c>
       <c r="D12">
-        <v>0.9803894374810319</v>
+        <v>0.9947616790087169</v>
       </c>
       <c r="E12">
-        <v>0.9592038143681941</v>
+        <v>0.9821959862387922</v>
       </c>
       <c r="F12">
-        <v>0.9750001121769587</v>
+        <v>0.9335469256675695</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028639715329572</v>
+        <v>1.029889455573678</v>
       </c>
       <c r="J12">
-        <v>0.9804743016949612</v>
+        <v>1.001704462715529</v>
       </c>
       <c r="K12">
-        <v>0.9959022422243919</v>
+        <v>1.009989929834213</v>
       </c>
       <c r="L12">
-        <v>0.9751566871646994</v>
+        <v>0.9976724211646048</v>
       </c>
       <c r="M12">
-        <v>0.9906224721564678</v>
+        <v>0.9500685037535939</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.949003601053217</v>
+        <v>0.9709982183439602</v>
       </c>
       <c r="D13">
-        <v>0.9809435120462464</v>
+        <v>0.9950495383985808</v>
       </c>
       <c r="E13">
-        <v>0.959804450396459</v>
+        <v>0.9825181135744449</v>
       </c>
       <c r="F13">
-        <v>0.9756222297412168</v>
+        <v>0.9341320596084058</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028896642659942</v>
+        <v>1.030028563909391</v>
       </c>
       <c r="J13">
-        <v>0.9810336087741255</v>
+        <v>1.001985479370539</v>
       </c>
       <c r="K13">
-        <v>0.9963998471935376</v>
+        <v>1.010227844985608</v>
       </c>
       <c r="L13">
-        <v>0.9756977090648867</v>
+        <v>0.9979428927673762</v>
       </c>
       <c r="M13">
-        <v>0.9911862002007337</v>
+        <v>0.9505914784393596</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9512626739295518</v>
+        <v>0.9722917208944118</v>
       </c>
       <c r="D14">
-        <v>0.9827457672391461</v>
+        <v>0.9959885857120637</v>
       </c>
       <c r="E14">
-        <v>0.9617579139718542</v>
+        <v>0.9835690006390974</v>
       </c>
       <c r="F14">
-        <v>0.9776459148074297</v>
+        <v>0.9360390545853405</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029731725174159</v>
+        <v>1.030481923451125</v>
       </c>
       <c r="J14">
-        <v>0.9828523708236652</v>
+        <v>1.002901795542311</v>
       </c>
       <c r="K14">
-        <v>0.9980179844876313</v>
+        <v>1.011003618766661</v>
       </c>
       <c r="L14">
-        <v>0.9774569158937222</v>
+        <v>0.9988249650239266</v>
       </c>
       <c r="M14">
-        <v>0.9930196195889837</v>
+        <v>0.9522958538251977</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9526416829469642</v>
+        <v>0.9730841412097564</v>
       </c>
       <c r="D15">
-        <v>0.9838462804928584</v>
+        <v>0.9965640292717985</v>
       </c>
       <c r="E15">
-        <v>0.9629505776759004</v>
+        <v>0.9842130193363873</v>
       </c>
       <c r="F15">
-        <v>0.9788817212401519</v>
+        <v>0.937206296132768</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030241169495166</v>
+        <v>1.03075940719765</v>
       </c>
       <c r="J15">
-        <v>0.9839625768370741</v>
+        <v>1.003462999624833</v>
       </c>
       <c r="K15">
-        <v>0.9990057376853848</v>
+        <v>1.011478745393984</v>
       </c>
       <c r="L15">
-        <v>0.9785306953524361</v>
+        <v>0.9993653027845965</v>
       </c>
       <c r="M15">
-        <v>0.9941389847774268</v>
+        <v>0.9533390437776808</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9604816620603963</v>
+        <v>0.9776292165727671</v>
       </c>
       <c r="D16">
-        <v>0.9901079680322036</v>
+        <v>0.9998670233156322</v>
       </c>
       <c r="E16">
-        <v>0.9697339950226596</v>
+        <v>0.9879102665690217</v>
       </c>
       <c r="F16">
-        <v>0.9859144764863574</v>
+        <v>0.9438868621056518</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033132546985644</v>
+        <v>1.032347128249558</v>
       </c>
       <c r="J16">
-        <v>0.9902737949154562</v>
+        <v>1.006679678293547</v>
       </c>
       <c r="K16">
-        <v>1.004620942430459</v>
+        <v>1.014201994306519</v>
       </c>
       <c r="L16">
-        <v>0.9846337352603987</v>
+        <v>1.00246395948393</v>
       </c>
       <c r="M16">
-        <v>1.000505352226663</v>
+        <v>0.9593090516510741</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9652454987004101</v>
+        <v>0.980423460740538</v>
       </c>
       <c r="D17">
-        <v>0.9939167798299486</v>
+        <v>1.001899667128925</v>
       </c>
       <c r="E17">
-        <v>0.9738580507075058</v>
+        <v>0.9901861212436844</v>
       </c>
       <c r="F17">
-        <v>0.9901934836038411</v>
+        <v>0.9479823542448392</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034884957721779</v>
+        <v>1.033319830563829</v>
       </c>
       <c r="J17">
-        <v>0.9941080171383906</v>
+        <v>1.008655294228906</v>
       </c>
       <c r="K17">
-        <v>1.008032317321262</v>
+        <v>1.015874470083229</v>
       </c>
       <c r="L17">
-        <v>0.9883405131018292</v>
+        <v>1.004368439556842</v>
       </c>
       <c r="M17">
-        <v>1.004375669482757</v>
+        <v>0.96296835297474</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9679724086993365</v>
+        <v>0.9820337358657047</v>
       </c>
       <c r="D18">
-        <v>0.9960983109222424</v>
+        <v>1.003071724913994</v>
       </c>
       <c r="E18">
-        <v>0.9762194377381758</v>
+        <v>0.9914986424902872</v>
       </c>
       <c r="F18">
-        <v>0.9926447679707662</v>
+        <v>0.9503386946315188</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035886390486482</v>
+        <v>1.033879141236625</v>
       </c>
       <c r="J18">
-        <v>0.9963024771768806</v>
+        <v>1.009793101489094</v>
       </c>
       <c r="K18">
-        <v>1.009984734190936</v>
+        <v>1.016837646202713</v>
       </c>
       <c r="L18">
-        <v>0.9904616808841827</v>
+        <v>1.005465751919876</v>
       </c>
       <c r="M18">
-        <v>1.006591681703578</v>
+        <v>0.965073485797226</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9688937627485606</v>
+        <v>0.9825795609549136</v>
       </c>
       <c r="D19">
-        <v>0.9968356024076871</v>
+        <v>1.00346912145553</v>
       </c>
       <c r="E19">
-        <v>0.9770174008217434</v>
+        <v>0.9919437034541522</v>
       </c>
       <c r="F19">
-        <v>0.9934733052861502</v>
+        <v>0.9511367925735246</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036224458376618</v>
+        <v>1.034068515325701</v>
       </c>
       <c r="J19">
-        <v>0.9970438688414955</v>
+        <v>1.010178656712045</v>
       </c>
       <c r="K19">
-        <v>1.01064434389062</v>
+        <v>1.017164017324437</v>
       </c>
       <c r="L19">
-        <v>0.9911782511979115</v>
+        <v>1.00583766446948</v>
       </c>
       <c r="M19">
-        <v>1.007340503013647</v>
+        <v>0.9657864544736484</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9647398166711112</v>
+        <v>0.9801257074139016</v>
       </c>
       <c r="D20">
-        <v>0.9935123358337545</v>
+        <v>1.001682997945623</v>
       </c>
       <c r="E20">
-        <v>0.973420206510493</v>
+        <v>0.9899435040590904</v>
       </c>
       <c r="F20">
-        <v>0.9897390654185814</v>
+        <v>0.947546345443992</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034699112637876</v>
+        <v>1.033216308470416</v>
       </c>
       <c r="J20">
-        <v>0.9937010456943858</v>
+        <v>1.008444846826173</v>
       </c>
       <c r="K20">
-        <v>1.007670230396995</v>
+        <v>1.015696318278157</v>
       </c>
       <c r="L20">
-        <v>0.9879471054017218</v>
+        <v>1.004165520188624</v>
       </c>
       <c r="M20">
-        <v>1.003964772924496</v>
+        <v>0.9625788060948534</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9506001422482101</v>
+        <v>0.9719117700609609</v>
       </c>
       <c r="D21">
-        <v>0.9822171328303596</v>
+        <v>0.9957127164321039</v>
       </c>
       <c r="E21">
-        <v>0.961184965865893</v>
+        <v>0.9832602672134818</v>
       </c>
       <c r="F21">
-        <v>0.9770523141254329</v>
+        <v>0.935479111979471</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029486881314036</v>
+        <v>1.030348806993463</v>
       </c>
       <c r="J21">
-        <v>0.982318976094761</v>
+        <v>1.002632669123984</v>
       </c>
       <c r="K21">
-        <v>0.9975434249013621</v>
+        <v>1.010775770501351</v>
       </c>
       <c r="L21">
-        <v>0.9769410023794056</v>
+        <v>0.9985658738539913</v>
       </c>
       <c r="M21">
-        <v>0.992481881605477</v>
+        <v>0.9517954118460563</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9411572316002883</v>
+        <v>0.9665510098974828</v>
       </c>
       <c r="D22">
-        <v>0.9746896666134777</v>
+        <v>0.9918236239216209</v>
       </c>
       <c r="E22">
-        <v>0.953022993794131</v>
+        <v>0.9789085711690073</v>
       </c>
       <c r="F22">
-        <v>0.9686011897588911</v>
+        <v>0.9275593863783215</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025991567409787</v>
+        <v>1.028466122196749</v>
       </c>
       <c r="J22">
-        <v>0.9747164175566762</v>
+        <v>0.998832897876648</v>
       </c>
       <c r="K22">
-        <v>0.9907797720472823</v>
+        <v>1.00755881539449</v>
       </c>
       <c r="L22">
-        <v>0.9695862764231354</v>
+        <v>0.9949097611752163</v>
       </c>
       <c r="M22">
-        <v>0.9848214244400502</v>
+        <v>0.9447167783338601</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9462202634533066</v>
+        <v>0.969412516717975</v>
       </c>
       <c r="D23">
-        <v>0.9787240315475232</v>
+        <v>0.9938988310730206</v>
       </c>
       <c r="E23">
-        <v>0.9573982432506354</v>
+        <v>0.9812304645241975</v>
       </c>
       <c r="F23">
-        <v>0.9731302736917228</v>
+        <v>0.9317914236945483</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027866916254494</v>
+        <v>1.029472111518005</v>
       </c>
       <c r="J23">
-        <v>0.978792722672538</v>
+        <v>1.000861773947658</v>
       </c>
       <c r="K23">
-        <v>0.9944061922615434</v>
+        <v>1.009276490920036</v>
       </c>
       <c r="L23">
-        <v>0.9735300020787571</v>
+        <v>0.996861474795315</v>
       </c>
       <c r="M23">
-        <v>0.9889278454539324</v>
+        <v>0.9484994608909652</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9649684716642611</v>
+        <v>0.9802603095616826</v>
       </c>
       <c r="D24">
-        <v>0.9936952098749352</v>
+        <v>1.001780943154541</v>
       </c>
       <c r="E24">
-        <v>0.9736181850147754</v>
+        <v>0.9900531783526554</v>
       </c>
       <c r="F24">
-        <v>0.9899445344786523</v>
+        <v>0.9477434590438479</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034783151734486</v>
+        <v>1.033263110449668</v>
       </c>
       <c r="J24">
-        <v>0.9938850675937734</v>
+        <v>1.008539983718183</v>
       </c>
       <c r="K24">
-        <v>1.007833956794115</v>
+        <v>1.015776855452678</v>
       </c>
       <c r="L24">
-        <v>0.988124995223992</v>
+        <v>1.004257252414446</v>
       </c>
       <c r="M24">
-        <v>1.004150566883583</v>
+        <v>0.9627549156679293</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9847182405472903</v>
+        <v>0.9920884608788335</v>
       </c>
       <c r="D25">
-        <v>1.00951397942003</v>
+        <v>1.010400963883514</v>
       </c>
       <c r="E25">
-        <v>0.9907303257660692</v>
+        <v>0.9997105275919754</v>
       </c>
       <c r="F25">
-        <v>1.007727668209969</v>
+        <v>0.9649938551201812</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042005085909365</v>
+        <v>1.037349151431161</v>
       </c>
       <c r="J25">
-        <v>1.009771073358944</v>
+        <v>1.016885045189104</v>
       </c>
       <c r="K25">
-        <v>1.021966376820094</v>
+        <v>1.022839935751635</v>
       </c>
       <c r="L25">
-        <v>1.003474266339061</v>
+        <v>1.012313338909335</v>
       </c>
       <c r="M25">
-        <v>1.020207194924392</v>
+        <v>0.9781610448467718</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_32/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_32/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.000997504286905</v>
+        <v>1.037478228321651</v>
       </c>
       <c r="D2">
-        <v>1.016909612665744</v>
+        <v>1.038879757060748</v>
       </c>
       <c r="E2">
-        <v>1.007010503651446</v>
+        <v>1.036232274417504</v>
       </c>
       <c r="F2">
-        <v>0.9779057652731887</v>
+        <v>1.036181704921944</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040387237289236</v>
+        <v>1.0375237010887</v>
       </c>
       <c r="J2">
-        <v>1.023148421052094</v>
+        <v>1.04258088169361</v>
       </c>
       <c r="K2">
-        <v>1.028138290952795</v>
+        <v>1.041666532877474</v>
       </c>
       <c r="L2">
-        <v>1.018373027446548</v>
+        <v>1.039026604927106</v>
       </c>
       <c r="M2">
-        <v>0.9896817379734937</v>
+        <v>1.038976180141608</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.007198303573916</v>
+        <v>1.038703356110266</v>
       </c>
       <c r="D3">
-        <v>1.021447026295932</v>
+        <v>1.039788269039321</v>
       </c>
       <c r="E3">
-        <v>1.012104771415703</v>
+        <v>1.037282930358145</v>
       </c>
       <c r="F3">
-        <v>0.9868588068491397</v>
+        <v>1.038037252531343</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042478167761292</v>
+        <v>1.037867201169697</v>
       </c>
       <c r="J3">
-        <v>1.027494640698364</v>
+        <v>1.04344902056075</v>
       </c>
       <c r="K3">
-        <v>1.03181265004325</v>
+        <v>1.042384889136459</v>
       </c>
       <c r="L3">
-        <v>1.022585077259708</v>
+        <v>1.039886180046277</v>
       </c>
       <c r="M3">
-        <v>0.9976626397014073</v>
+        <v>1.040638502504297</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.011097111957444</v>
+        <v>1.039495071171304</v>
       </c>
       <c r="D4">
-        <v>1.024302778731231</v>
+        <v>1.040375253318094</v>
       </c>
       <c r="E4">
-        <v>1.015313558544823</v>
+        <v>1.037962170088302</v>
       </c>
       <c r="F4">
-        <v>0.9924761033079107</v>
+        <v>1.039236684667561</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043781689114033</v>
+        <v>1.038087786329222</v>
       </c>
       <c r="J4">
-        <v>1.03022115002219</v>
+        <v>1.044009249485433</v>
       </c>
       <c r="K4">
-        <v>1.034116478573567</v>
+        <v>1.042848203570965</v>
       </c>
       <c r="L4">
-        <v>1.025230609953915</v>
+        <v>1.040441182765688</v>
       </c>
       <c r="M4">
-        <v>1.002666191434931</v>
+        <v>1.041712491584503</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.012710405272038</v>
+        <v>1.039827667195189</v>
       </c>
       <c r="D5">
-        <v>1.025485060072542</v>
+        <v>1.040621812321286</v>
       </c>
       <c r="E5">
-        <v>1.016642634291202</v>
+        <v>1.038247580570003</v>
       </c>
       <c r="F5">
-        <v>0.9947980906098159</v>
+        <v>1.039740642732959</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044318357319114</v>
+        <v>1.038180118931455</v>
       </c>
       <c r="J5">
-        <v>1.031347844470438</v>
+        <v>1.044244410191315</v>
       </c>
       <c r="K5">
-        <v>1.035068192341704</v>
+        <v>1.043042621850265</v>
       </c>
       <c r="L5">
-        <v>1.026324591870815</v>
+        <v>1.040674221462991</v>
       </c>
       <c r="M5">
-        <v>1.004733518475163</v>
+        <v>1.042163613164485</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.012979812351186</v>
+        <v>1.039883497523653</v>
       </c>
       <c r="D6">
-        <v>1.025682524396758</v>
+        <v>1.040663198464676</v>
       </c>
       <c r="E6">
-        <v>1.01686465436306</v>
+        <v>1.038295494009011</v>
       </c>
       <c r="F6">
-        <v>0.995185715809912</v>
+        <v>1.039825243237107</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04440781570718</v>
+        <v>1.038195598482827</v>
       </c>
       <c r="J6">
-        <v>1.031535903933241</v>
+        <v>1.044283873716584</v>
       </c>
       <c r="K6">
-        <v>1.035227026204145</v>
+        <v>1.043075244546273</v>
       </c>
       <c r="L6">
-        <v>1.026507234884412</v>
+        <v>1.040713333086729</v>
       </c>
       <c r="M6">
-        <v>1.005078573728765</v>
+        <v>1.042239336276636</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.01111876832008</v>
+        <v>1.039499516277263</v>
       </c>
       <c r="D7">
-        <v>1.024318647064259</v>
+        <v>1.040378548670603</v>
       </c>
       <c r="E7">
-        <v>1.015331394567266</v>
+        <v>1.037965984311102</v>
       </c>
       <c r="F7">
-        <v>0.9925072818658341</v>
+        <v>1.039243419678418</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043788903988977</v>
+        <v>1.038089021657518</v>
       </c>
       <c r="J7">
-        <v>1.030236280436989</v>
+        <v>1.044012393123131</v>
       </c>
       <c r="K7">
-        <v>1.03412926043966</v>
+        <v>1.042850802805613</v>
       </c>
       <c r="L7">
-        <v>1.025245298121574</v>
+        <v>1.040444297754392</v>
       </c>
       <c r="M7">
-        <v>1.002693954394593</v>
+        <v>1.041718520987032</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.003117486587164</v>
+        <v>1.037892480720221</v>
       </c>
       <c r="D8">
-        <v>1.01846025922392</v>
+        <v>1.039186977354732</v>
       </c>
       <c r="E8">
-        <v>1.008750927911829</v>
+        <v>1.036587475526745</v>
       </c>
       <c r="F8">
-        <v>0.9809695499804344</v>
+        <v>1.036809057834881</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041104434461747</v>
+        <v>1.037640137716134</v>
       </c>
       <c r="J8">
-        <v>1.024635642065801</v>
+        <v>1.042874588877742</v>
       </c>
       <c r="K8">
-        <v>1.029395848355593</v>
+        <v>1.041909618871736</v>
       </c>
       <c r="L8">
-        <v>1.019813652832137</v>
+        <v>1.03931735249519</v>
       </c>
       <c r="M8">
-        <v>0.9924136241483678</v>
+        <v>1.039538316517614</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9880786154201697</v>
+        <v>1.035052638911063</v>
       </c>
       <c r="D9">
-        <v>1.007475869795338</v>
+        <v>1.037080400641472</v>
       </c>
       <c r="E9">
-        <v>0.9964322187012742</v>
+        <v>1.034153602216399</v>
       </c>
       <c r="F9">
-        <v>0.9591607937381069</v>
+        <v>1.032509452394138</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035970144146144</v>
+        <v>1.036836200442944</v>
       </c>
       <c r="J9">
-        <v>1.014059487772448</v>
+        <v>1.040857887343311</v>
       </c>
       <c r="K9">
-        <v>1.020448809581681</v>
+        <v>1.040239458036682</v>
       </c>
       <c r="L9">
-        <v>1.009583447106835</v>
+        <v>1.037322214968798</v>
       </c>
       <c r="M9">
-        <v>0.9729531362636036</v>
+        <v>1.035683458989513</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9773107301653655</v>
+        <v>1.033153732998444</v>
       </c>
       <c r="D10">
-        <v>0.999635439936425</v>
+        <v>1.035671240021467</v>
       </c>
       <c r="E10">
-        <v>0.9876510034435259</v>
+        <v>1.032527629472131</v>
       </c>
       <c r="F10">
-        <v>0.9434195115659484</v>
+        <v>1.029635632796225</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032236091487988</v>
+        <v>1.036291450377111</v>
       </c>
       <c r="J10">
-        <v>1.00645440236553</v>
+        <v>1.039505321742256</v>
       </c>
       <c r="K10">
-        <v>1.014011279748953</v>
+        <v>1.039118013627883</v>
       </c>
       <c r="L10">
-        <v>1.002246860817581</v>
+        <v>1.035985680465977</v>
       </c>
       <c r="M10">
-        <v>0.9588914451615069</v>
+        <v>1.033104125688684</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9724432472624281</v>
+        <v>1.032330077603944</v>
       </c>
       <c r="D11">
-        <v>0.9960986120042397</v>
+        <v>1.035059890107806</v>
       </c>
       <c r="E11">
-        <v>0.9836921362678815</v>
+        <v>1.03182271866225</v>
       </c>
       <c r="F11">
-        <v>0.9362623132751554</v>
+        <v>1.028389316112926</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03053499871163</v>
+        <v>1.03605346236248</v>
       </c>
       <c r="J11">
-        <v>1.003009117442745</v>
+        <v>1.038917679694672</v>
       </c>
       <c r="K11">
-        <v>1.011094479747551</v>
+        <v>1.038630482309413</v>
       </c>
       <c r="L11">
-        <v>0.9989282902762519</v>
+        <v>1.035405377490516</v>
       </c>
       <c r="M11">
-        <v>0.9524953870565019</v>
+        <v>1.031984864960499</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9706016083117589</v>
+        <v>1.032023917101109</v>
       </c>
       <c r="D12">
-        <v>0.9947616790087169</v>
+        <v>1.03483262802729</v>
       </c>
       <c r="E12">
-        <v>0.9821959862387922</v>
+        <v>1.031560751360062</v>
       </c>
       <c r="F12">
-        <v>0.9335469256675695</v>
+        <v>1.0279260740547</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029889455573678</v>
+        <v>1.035964744588053</v>
       </c>
       <c r="J12">
-        <v>1.001704462715529</v>
+        <v>1.038699102958051</v>
       </c>
       <c r="K12">
-        <v>1.009989929834213</v>
+        <v>1.038449097120727</v>
       </c>
       <c r="L12">
-        <v>0.9976724211646048</v>
+        <v>1.035189586953488</v>
       </c>
       <c r="M12">
-        <v>0.9500685037535939</v>
+        <v>1.031568749739562</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9709982183439602</v>
+        <v>1.03208959952994</v>
       </c>
       <c r="D13">
-        <v>0.9950495383985808</v>
+        <v>1.034881384688184</v>
       </c>
       <c r="E13">
-        <v>0.9825181135744449</v>
+        <v>1.031616950271464</v>
       </c>
       <c r="F13">
-        <v>0.9341320596084058</v>
+        <v>1.028025455056391</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030028563909391</v>
+        <v>1.035983789290177</v>
       </c>
       <c r="J13">
-        <v>1.001985479370539</v>
+        <v>1.038746002064727</v>
       </c>
       <c r="K13">
-        <v>1.010227844985608</v>
+        <v>1.038488018229669</v>
       </c>
       <c r="L13">
-        <v>0.9979428927673762</v>
+        <v>1.035235885682574</v>
       </c>
       <c r="M13">
-        <v>0.9505914784393596</v>
+        <v>1.031658024900672</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9722917208944118</v>
+        <v>1.032304774764127</v>
       </c>
       <c r="D14">
-        <v>0.9959885857120637</v>
+        <v>1.035041108233244</v>
       </c>
       <c r="E14">
-        <v>0.9835690006390974</v>
+        <v>1.031801067078779</v>
       </c>
       <c r="F14">
-        <v>0.9360390545853405</v>
+        <v>1.028351030674069</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030481923451125</v>
+        <v>1.036046135429787</v>
       </c>
       <c r="J14">
-        <v>1.002901795542311</v>
+        <v>1.038899618223114</v>
       </c>
       <c r="K14">
-        <v>1.011003618766661</v>
+        <v>1.038615494975891</v>
       </c>
       <c r="L14">
-        <v>0.9988249650239266</v>
+        <v>1.035387545097772</v>
       </c>
       <c r="M14">
-        <v>0.9522958538251977</v>
+        <v>1.031950476407017</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9730841412097564</v>
+        <v>1.032437322249959</v>
       </c>
       <c r="D15">
-        <v>0.9965640292717985</v>
+        <v>1.035139495301462</v>
       </c>
       <c r="E15">
-        <v>0.9842130193363873</v>
+        <v>1.031914489910701</v>
       </c>
       <c r="F15">
-        <v>0.937206296132768</v>
+        <v>1.028551587780544</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03075940719765</v>
+        <v>1.036084506695577</v>
       </c>
       <c r="J15">
-        <v>1.003462999624833</v>
+        <v>1.038994226292944</v>
       </c>
       <c r="K15">
-        <v>1.011478745393984</v>
+        <v>1.038693998508673</v>
       </c>
       <c r="L15">
-        <v>0.9993653027845965</v>
+        <v>1.035480955535516</v>
       </c>
       <c r="M15">
-        <v>0.9533390437776808</v>
+        <v>1.032130615768713</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9776292165727671</v>
+        <v>1.033208365989242</v>
       </c>
       <c r="D16">
-        <v>0.9998670233156322</v>
+        <v>1.035711788300683</v>
       </c>
       <c r="E16">
-        <v>0.9879102665690217</v>
+        <v>1.032574393770989</v>
       </c>
       <c r="F16">
-        <v>0.9438868621056518</v>
+        <v>1.029718304792634</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032347128249558</v>
+        <v>1.036307200300687</v>
       </c>
       <c r="J16">
-        <v>1.006679678293547</v>
+        <v>1.039544279715604</v>
       </c>
       <c r="K16">
-        <v>1.014201994306519</v>
+        <v>1.039150328369005</v>
       </c>
       <c r="L16">
-        <v>1.00246395948393</v>
+        <v>1.03602415978008</v>
       </c>
       <c r="M16">
-        <v>0.9593090516510741</v>
+        <v>1.033178355865571</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.980423460740538</v>
+        <v>1.033691638300562</v>
       </c>
       <c r="D17">
-        <v>1.001899667128925</v>
+        <v>1.036070456061115</v>
       </c>
       <c r="E17">
-        <v>0.9901861212436844</v>
+        <v>1.032988102779286</v>
       </c>
       <c r="F17">
-        <v>0.9479823542448392</v>
+        <v>1.030449627949474</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033319830563829</v>
+        <v>1.036446324588335</v>
       </c>
       <c r="J17">
-        <v>1.008655294228906</v>
+        <v>1.039888782855147</v>
       </c>
       <c r="K17">
-        <v>1.015874470083229</v>
+        <v>1.039436050856392</v>
       </c>
       <c r="L17">
-        <v>1.004368439556842</v>
+        <v>1.036364473330154</v>
       </c>
       <c r="M17">
-        <v>0.96296835297474</v>
+        <v>1.033834926227527</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9820337358657047</v>
+        <v>1.033973386548658</v>
       </c>
       <c r="D18">
-        <v>1.003071724913994</v>
+        <v>1.036279547829998</v>
       </c>
       <c r="E18">
-        <v>0.9914986424902872</v>
+        <v>1.033229330113582</v>
       </c>
       <c r="F18">
-        <v>0.9503386946315188</v>
+        <v>1.030876010739298</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033879141236625</v>
+        <v>1.036527270196175</v>
       </c>
       <c r="J18">
-        <v>1.009793101489094</v>
+        <v>1.040089535691118</v>
       </c>
       <c r="K18">
-        <v>1.016837646202713</v>
+        <v>1.039602521125658</v>
       </c>
       <c r="L18">
-        <v>1.005465751919876</v>
+        <v>1.03656282077397</v>
       </c>
       <c r="M18">
-        <v>0.965073485797226</v>
+        <v>1.03421766263167</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9825795609549136</v>
+        <v>1.034069432460877</v>
       </c>
       <c r="D19">
-        <v>1.00346912145553</v>
+        <v>1.036350823634859</v>
       </c>
       <c r="E19">
-        <v>0.9919437034541522</v>
+        <v>1.0333115685826</v>
       </c>
       <c r="F19">
-        <v>0.9511367925735246</v>
+        <v>1.031021365187222</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034068515325701</v>
+        <v>1.03655483613783</v>
       </c>
       <c r="J19">
-        <v>1.010178656712045</v>
+        <v>1.040157955110677</v>
       </c>
       <c r="K19">
-        <v>1.017164017324437</v>
+        <v>1.039659251590461</v>
       </c>
       <c r="L19">
-        <v>1.00583766446948</v>
+        <v>1.036630426504745</v>
       </c>
       <c r="M19">
-        <v>0.9657864544736484</v>
+        <v>1.034348127223343</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9801257074139016</v>
+        <v>1.033639801895291</v>
       </c>
       <c r="D20">
-        <v>1.001682997945623</v>
+        <v>1.036031986123459</v>
       </c>
       <c r="E20">
-        <v>0.9899435040590904</v>
+        <v>1.032943724241491</v>
       </c>
       <c r="F20">
-        <v>0.947546345443992</v>
+        <v>1.03037118320093</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033216308470416</v>
+        <v>1.036431418903939</v>
       </c>
       <c r="J20">
-        <v>1.008444846826173</v>
+        <v>1.039851840613081</v>
       </c>
       <c r="K20">
-        <v>1.015696318278157</v>
+        <v>1.039405414885035</v>
       </c>
       <c r="L20">
-        <v>1.004165520188624</v>
+        <v>1.03632797662419</v>
       </c>
       <c r="M20">
-        <v>0.9625788060948534</v>
+        <v>1.033764506322249</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9719117700609609</v>
+        <v>1.032241417088069</v>
       </c>
       <c r="D21">
-        <v>0.9957127164321039</v>
+        <v>1.034994078610522</v>
       </c>
       <c r="E21">
-        <v>0.9832602672134818</v>
+        <v>1.031746852943334</v>
       </c>
       <c r="F21">
-        <v>0.935479111979471</v>
+        <v>1.028255165289579</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030348806993463</v>
+        <v>1.036027784850193</v>
       </c>
       <c r="J21">
-        <v>1.002632669123984</v>
+        <v>1.038854390415822</v>
       </c>
       <c r="K21">
-        <v>1.010775770501351</v>
+        <v>1.038577964402045</v>
       </c>
       <c r="L21">
-        <v>0.9985658738539913</v>
+        <v>1.035342891838983</v>
       </c>
       <c r="M21">
-        <v>0.9517954118460563</v>
+        <v>1.031864367096296</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9665510098974828</v>
+        <v>1.031360931828846</v>
       </c>
       <c r="D22">
-        <v>0.9918236239216209</v>
+        <v>1.034340464853719</v>
       </c>
       <c r="E22">
-        <v>0.9789085711690073</v>
+        <v>1.03099356661942</v>
       </c>
       <c r="F22">
-        <v>0.9275593863783215</v>
+        <v>1.026922971792767</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028466122196749</v>
+        <v>1.035772160873219</v>
       </c>
       <c r="J22">
-        <v>0.998832897876648</v>
+        <v>1.038225514343717</v>
       </c>
       <c r="K22">
-        <v>1.00755881539449</v>
+        <v>1.038056008862619</v>
       </c>
       <c r="L22">
-        <v>0.9949097611752163</v>
+        <v>1.034722138562484</v>
       </c>
       <c r="M22">
-        <v>0.9447167783338601</v>
+        <v>1.030667515879547</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.969412516717975</v>
+        <v>1.031827815462166</v>
       </c>
       <c r="D23">
-        <v>0.9938988310730206</v>
+        <v>1.034687057510168</v>
       </c>
       <c r="E23">
-        <v>0.9812304645241975</v>
+        <v>1.031392971807026</v>
       </c>
       <c r="F23">
-        <v>0.9317914236945483</v>
+        <v>1.027629365163806</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029472111518005</v>
+        <v>1.035907847294798</v>
       </c>
       <c r="J23">
-        <v>1.000861773947658</v>
+        <v>1.038559059685092</v>
       </c>
       <c r="K23">
-        <v>1.009276490920036</v>
+        <v>1.038332869990861</v>
       </c>
       <c r="L23">
-        <v>0.996861474795315</v>
+        <v>1.035051344712371</v>
       </c>
       <c r="M23">
-        <v>0.9484994608909652</v>
+        <v>1.031302198139537</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9802603095616826</v>
+        <v>1.0336632249564</v>
       </c>
       <c r="D24">
-        <v>1.001780943154541</v>
+        <v>1.036049369381574</v>
       </c>
       <c r="E24">
-        <v>0.9900531783526554</v>
+        <v>1.032963777246038</v>
       </c>
       <c r="F24">
-        <v>0.9477434590438479</v>
+        <v>1.03040662957843</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033263110449668</v>
+        <v>1.036438154768965</v>
       </c>
       <c r="J24">
-        <v>1.008539983718183</v>
+        <v>1.039868533808964</v>
       </c>
       <c r="K24">
-        <v>1.015776855452678</v>
+        <v>1.039419258538845</v>
       </c>
       <c r="L24">
-        <v>1.004257252414446</v>
+        <v>1.036344468383117</v>
       </c>
       <c r="M24">
-        <v>0.9627549156679293</v>
+        <v>1.03379632675567</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9920884608788335</v>
+        <v>1.035787786781523</v>
       </c>
       <c r="D25">
-        <v>1.010400963883514</v>
+        <v>1.037625831710978</v>
       </c>
       <c r="E25">
-        <v>0.9997105275919754</v>
+        <v>1.034783400594857</v>
       </c>
       <c r="F25">
-        <v>0.9649938551201812</v>
+        <v>1.033622256976015</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037349151431161</v>
+        <v>1.03704558066865</v>
       </c>
       <c r="J25">
-        <v>1.016885045189104</v>
+        <v>1.04138066548835</v>
       </c>
       <c r="K25">
-        <v>1.022839935751635</v>
+        <v>1.040672633958486</v>
       </c>
       <c r="L25">
-        <v>1.012313338909335</v>
+        <v>1.037839128192536</v>
       </c>
       <c r="M25">
-        <v>0.9781610448467718</v>
+        <v>1.036681646051831</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_32/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_32/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.037478228321651</v>
+        <v>1.000997504286906</v>
       </c>
       <c r="D2">
-        <v>1.038879757060748</v>
+        <v>1.016909612665745</v>
       </c>
       <c r="E2">
-        <v>1.036232274417504</v>
+        <v>1.007010503651446</v>
       </c>
       <c r="F2">
-        <v>1.036181704921944</v>
+        <v>0.9779057652731896</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.0375237010887</v>
+        <v>1.040387237289237</v>
       </c>
       <c r="J2">
-        <v>1.04258088169361</v>
+        <v>1.023148421052094</v>
       </c>
       <c r="K2">
-        <v>1.041666532877474</v>
+        <v>1.028138290952796</v>
       </c>
       <c r="L2">
-        <v>1.039026604927106</v>
+        <v>1.018373027446549</v>
       </c>
       <c r="M2">
-        <v>1.038976180141608</v>
+        <v>0.9896817379734947</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.038703356110266</v>
+        <v>1.007198303573917</v>
       </c>
       <c r="D3">
-        <v>1.039788269039321</v>
+        <v>1.021447026295933</v>
       </c>
       <c r="E3">
-        <v>1.037282930358145</v>
+        <v>1.012104771415705</v>
       </c>
       <c r="F3">
-        <v>1.038037252531343</v>
+        <v>0.9868588068491412</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037867201169697</v>
+        <v>1.042478167761293</v>
       </c>
       <c r="J3">
-        <v>1.04344902056075</v>
+        <v>1.027494640698365</v>
       </c>
       <c r="K3">
-        <v>1.042384889136459</v>
+        <v>1.031812650043251</v>
       </c>
       <c r="L3">
-        <v>1.039886180046277</v>
+        <v>1.022585077259709</v>
       </c>
       <c r="M3">
-        <v>1.040638502504297</v>
+        <v>0.9976626397014084</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.039495071171304</v>
+        <v>1.011097111957444</v>
       </c>
       <c r="D4">
-        <v>1.040375253318094</v>
+        <v>1.024302778731231</v>
       </c>
       <c r="E4">
-        <v>1.037962170088302</v>
+        <v>1.015313558544823</v>
       </c>
       <c r="F4">
-        <v>1.039236684667561</v>
+        <v>0.9924761033079105</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038087786329222</v>
+        <v>1.043781689114033</v>
       </c>
       <c r="J4">
-        <v>1.044009249485433</v>
+        <v>1.03022115002219</v>
       </c>
       <c r="K4">
-        <v>1.042848203570965</v>
+        <v>1.034116478573567</v>
       </c>
       <c r="L4">
-        <v>1.040441182765688</v>
+        <v>1.025230609953915</v>
       </c>
       <c r="M4">
-        <v>1.041712491584503</v>
+        <v>1.002666191434931</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.039827667195189</v>
+        <v>1.012710405272037</v>
       </c>
       <c r="D5">
-        <v>1.040621812321286</v>
+        <v>1.025485060072541</v>
       </c>
       <c r="E5">
-        <v>1.038247580570003</v>
+        <v>1.016642634291201</v>
       </c>
       <c r="F5">
-        <v>1.039740642732959</v>
+        <v>0.9947980906098159</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038180118931455</v>
+        <v>1.044318357319114</v>
       </c>
       <c r="J5">
-        <v>1.044244410191315</v>
+        <v>1.031347844470437</v>
       </c>
       <c r="K5">
-        <v>1.043042621850265</v>
+        <v>1.035068192341704</v>
       </c>
       <c r="L5">
-        <v>1.040674221462991</v>
+        <v>1.026324591870814</v>
       </c>
       <c r="M5">
-        <v>1.042163613164485</v>
+        <v>1.004733518475163</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.039883497523653</v>
+        <v>1.012979812351186</v>
       </c>
       <c r="D6">
-        <v>1.040663198464676</v>
+        <v>1.025682524396758</v>
       </c>
       <c r="E6">
-        <v>1.038295494009011</v>
+        <v>1.01686465436306</v>
       </c>
       <c r="F6">
-        <v>1.039825243237107</v>
+        <v>0.9951857158099119</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038195598482827</v>
+        <v>1.044407815707179</v>
       </c>
       <c r="J6">
-        <v>1.044283873716584</v>
+        <v>1.031535903933241</v>
       </c>
       <c r="K6">
-        <v>1.043075244546273</v>
+        <v>1.035227026204145</v>
       </c>
       <c r="L6">
-        <v>1.040713333086729</v>
+        <v>1.026507234884412</v>
       </c>
       <c r="M6">
-        <v>1.042239336276636</v>
+        <v>1.005078573728764</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.039499516277263</v>
+        <v>1.01111876832008</v>
       </c>
       <c r="D7">
-        <v>1.040378548670603</v>
+        <v>1.024318647064258</v>
       </c>
       <c r="E7">
-        <v>1.037965984311102</v>
+        <v>1.015331394567266</v>
       </c>
       <c r="F7">
-        <v>1.039243419678418</v>
+        <v>0.9925072818658339</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038089021657518</v>
+        <v>1.043788903988977</v>
       </c>
       <c r="J7">
-        <v>1.044012393123131</v>
+        <v>1.030236280436989</v>
       </c>
       <c r="K7">
-        <v>1.042850802805613</v>
+        <v>1.03412926043966</v>
       </c>
       <c r="L7">
-        <v>1.040444297754392</v>
+        <v>1.025245298121574</v>
       </c>
       <c r="M7">
-        <v>1.041718520987032</v>
+        <v>1.002693954394594</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.037892480720221</v>
+        <v>1.003117486587163</v>
       </c>
       <c r="D8">
-        <v>1.039186977354732</v>
+        <v>1.018460259223919</v>
       </c>
       <c r="E8">
-        <v>1.036587475526745</v>
+        <v>1.008750927911828</v>
       </c>
       <c r="F8">
-        <v>1.036809057834881</v>
+        <v>0.9809695499804334</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037640137716134</v>
+        <v>1.041104434461747</v>
       </c>
       <c r="J8">
-        <v>1.042874588877742</v>
+        <v>1.024635642065801</v>
       </c>
       <c r="K8">
-        <v>1.041909618871736</v>
+        <v>1.029395848355592</v>
       </c>
       <c r="L8">
-        <v>1.03931735249519</v>
+        <v>1.019813652832136</v>
       </c>
       <c r="M8">
-        <v>1.039538316517614</v>
+        <v>0.9924136241483669</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.035052638911063</v>
+        <v>0.9880786154201689</v>
       </c>
       <c r="D9">
-        <v>1.037080400641472</v>
+        <v>1.007475869795337</v>
       </c>
       <c r="E9">
-        <v>1.034153602216399</v>
+        <v>0.9964322187012735</v>
       </c>
       <c r="F9">
-        <v>1.032509452394138</v>
+        <v>0.9591607937381059</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036836200442944</v>
+        <v>1.035970144146144</v>
       </c>
       <c r="J9">
-        <v>1.040857887343311</v>
+        <v>1.014059487772447</v>
       </c>
       <c r="K9">
-        <v>1.040239458036682</v>
+        <v>1.02044880958168</v>
       </c>
       <c r="L9">
-        <v>1.037322214968798</v>
+        <v>1.009583447106835</v>
       </c>
       <c r="M9">
-        <v>1.035683458989513</v>
+        <v>0.9729531362636026</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.033153732998444</v>
+        <v>0.977310730165365</v>
       </c>
       <c r="D10">
-        <v>1.035671240021467</v>
+        <v>0.9996354399364246</v>
       </c>
       <c r="E10">
-        <v>1.032527629472131</v>
+        <v>0.9876510034435255</v>
       </c>
       <c r="F10">
-        <v>1.029635632796225</v>
+        <v>0.9434195115659476</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036291450377111</v>
+        <v>1.032236091487988</v>
       </c>
       <c r="J10">
-        <v>1.039505321742256</v>
+        <v>1.006454402365529</v>
       </c>
       <c r="K10">
-        <v>1.039118013627883</v>
+        <v>1.014011279748953</v>
       </c>
       <c r="L10">
-        <v>1.035985680465977</v>
+        <v>1.002246860817581</v>
       </c>
       <c r="M10">
-        <v>1.033104125688684</v>
+        <v>0.9588914451615065</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.032330077603944</v>
+        <v>0.9724432472624283</v>
       </c>
       <c r="D11">
-        <v>1.035059890107806</v>
+        <v>0.99609861200424</v>
       </c>
       <c r="E11">
-        <v>1.03182271866225</v>
+        <v>0.9836921362678814</v>
       </c>
       <c r="F11">
-        <v>1.028389316112926</v>
+        <v>0.9362623132751552</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03605346236248</v>
+        <v>1.03053499871163</v>
       </c>
       <c r="J11">
-        <v>1.038917679694672</v>
+        <v>1.003009117442746</v>
       </c>
       <c r="K11">
-        <v>1.038630482309413</v>
+        <v>1.011094479747551</v>
       </c>
       <c r="L11">
-        <v>1.035405377490516</v>
+        <v>0.998928290276252</v>
       </c>
       <c r="M11">
-        <v>1.031984864960499</v>
+        <v>0.9524953870565018</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.032023917101109</v>
+        <v>0.9706016083117597</v>
       </c>
       <c r="D12">
-        <v>1.03483262802729</v>
+        <v>0.9947616790087177</v>
       </c>
       <c r="E12">
-        <v>1.031560751360062</v>
+        <v>0.9821959862387922</v>
       </c>
       <c r="F12">
-        <v>1.0279260740547</v>
+        <v>0.9335469256675705</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035964744588053</v>
+        <v>1.029889455573679</v>
       </c>
       <c r="J12">
-        <v>1.038699102958051</v>
+        <v>1.001704462715529</v>
       </c>
       <c r="K12">
-        <v>1.038449097120727</v>
+        <v>1.009989929834213</v>
       </c>
       <c r="L12">
-        <v>1.035189586953488</v>
+        <v>0.9976724211646049</v>
       </c>
       <c r="M12">
-        <v>1.031568749739562</v>
+        <v>0.9500685037535946</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.03208959952994</v>
+        <v>0.9709982183439603</v>
       </c>
       <c r="D13">
-        <v>1.034881384688184</v>
+        <v>0.9950495383985807</v>
       </c>
       <c r="E13">
-        <v>1.031616950271464</v>
+        <v>0.9825181135744453</v>
       </c>
       <c r="F13">
-        <v>1.028025455056391</v>
+        <v>0.9341320596084058</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035983789290177</v>
+        <v>1.030028563909391</v>
       </c>
       <c r="J13">
-        <v>1.038746002064727</v>
+        <v>1.00198547937054</v>
       </c>
       <c r="K13">
-        <v>1.038488018229669</v>
+        <v>1.010227844985608</v>
       </c>
       <c r="L13">
-        <v>1.035235885682574</v>
+        <v>0.9979428927673766</v>
       </c>
       <c r="M13">
-        <v>1.031658024900672</v>
+        <v>0.9505914784393599</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.032304774764127</v>
+        <v>0.9722917208944117</v>
       </c>
       <c r="D14">
-        <v>1.035041108233244</v>
+        <v>0.9959885857120642</v>
       </c>
       <c r="E14">
-        <v>1.031801067078779</v>
+        <v>0.9835690006390971</v>
       </c>
       <c r="F14">
-        <v>1.028351030674069</v>
+        <v>0.9360390545853411</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036046135429787</v>
+        <v>1.030481923451125</v>
       </c>
       <c r="J14">
-        <v>1.038899618223114</v>
+        <v>1.002901795542311</v>
       </c>
       <c r="K14">
-        <v>1.038615494975891</v>
+        <v>1.011003618766661</v>
       </c>
       <c r="L14">
-        <v>1.035387545097772</v>
+        <v>0.9988249650239265</v>
       </c>
       <c r="M14">
-        <v>1.031950476407017</v>
+        <v>0.9522958538251981</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.032437322249959</v>
+        <v>0.9730841412097557</v>
       </c>
       <c r="D15">
-        <v>1.035139495301462</v>
+        <v>0.996564029271798</v>
       </c>
       <c r="E15">
-        <v>1.031914489910701</v>
+        <v>0.9842130193363869</v>
       </c>
       <c r="F15">
-        <v>1.028551587780544</v>
+        <v>0.9372062961327675</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036084506695577</v>
+        <v>1.03075940719765</v>
       </c>
       <c r="J15">
-        <v>1.038994226292944</v>
+        <v>1.003462999624833</v>
       </c>
       <c r="K15">
-        <v>1.038693998508673</v>
+        <v>1.011478745393983</v>
       </c>
       <c r="L15">
-        <v>1.035480955535516</v>
+        <v>0.999365302784596</v>
       </c>
       <c r="M15">
-        <v>1.032130615768713</v>
+        <v>0.9533390437776804</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.033208365989242</v>
+        <v>0.9776292165727649</v>
       </c>
       <c r="D16">
-        <v>1.035711788300683</v>
+        <v>0.9998670233156303</v>
       </c>
       <c r="E16">
-        <v>1.032574393770989</v>
+        <v>0.9879102665690196</v>
       </c>
       <c r="F16">
-        <v>1.029718304792634</v>
+        <v>0.9438868621056489</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036307200300687</v>
+        <v>1.032347128249557</v>
       </c>
       <c r="J16">
-        <v>1.039544279715604</v>
+        <v>1.006679678293545</v>
       </c>
       <c r="K16">
-        <v>1.039150328369005</v>
+        <v>1.014201994306517</v>
       </c>
       <c r="L16">
-        <v>1.03602415978008</v>
+        <v>1.002463959483928</v>
       </c>
       <c r="M16">
-        <v>1.033178355865571</v>
+        <v>0.9593090516510714</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.033691638300562</v>
+        <v>0.9804234607405374</v>
       </c>
       <c r="D17">
-        <v>1.036070456061115</v>
+        <v>1.001899667128925</v>
       </c>
       <c r="E17">
-        <v>1.032988102779286</v>
+        <v>0.990186121243684</v>
       </c>
       <c r="F17">
-        <v>1.030449627949474</v>
+        <v>0.9479823542448392</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036446324588335</v>
+        <v>1.033319830563829</v>
       </c>
       <c r="J17">
-        <v>1.039888782855147</v>
+        <v>1.008655294228906</v>
       </c>
       <c r="K17">
-        <v>1.039436050856392</v>
+        <v>1.015874470083229</v>
       </c>
       <c r="L17">
-        <v>1.036364473330154</v>
+        <v>1.004368439556841</v>
       </c>
       <c r="M17">
-        <v>1.033834926227527</v>
+        <v>0.9629683529747399</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.033973386548658</v>
+        <v>0.9820337358657035</v>
       </c>
       <c r="D18">
-        <v>1.036279547829998</v>
+        <v>1.003071724913993</v>
       </c>
       <c r="E18">
-        <v>1.033229330113582</v>
+        <v>0.9914986424902857</v>
       </c>
       <c r="F18">
-        <v>1.030876010739298</v>
+        <v>0.950338694631517</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036527270196175</v>
+        <v>1.033879141236625</v>
       </c>
       <c r="J18">
-        <v>1.040089535691118</v>
+        <v>1.009793101489093</v>
       </c>
       <c r="K18">
-        <v>1.039602521125658</v>
+        <v>1.016837646202712</v>
       </c>
       <c r="L18">
-        <v>1.03656282077397</v>
+        <v>1.005465751919875</v>
       </c>
       <c r="M18">
-        <v>1.03421766263167</v>
+        <v>0.9650734857972244</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.034069432460877</v>
+        <v>0.9825795609549115</v>
       </c>
       <c r="D19">
-        <v>1.036350823634859</v>
+        <v>1.003469121455528</v>
       </c>
       <c r="E19">
-        <v>1.0333115685826</v>
+        <v>0.9919437034541504</v>
       </c>
       <c r="F19">
-        <v>1.031021365187222</v>
+        <v>0.951136792573522</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03655483613783</v>
+        <v>1.034068515325699</v>
       </c>
       <c r="J19">
-        <v>1.040157955110677</v>
+        <v>1.010178656712043</v>
       </c>
       <c r="K19">
-        <v>1.039659251590461</v>
+        <v>1.017164017324435</v>
       </c>
       <c r="L19">
-        <v>1.036630426504745</v>
+        <v>1.005837664469478</v>
       </c>
       <c r="M19">
-        <v>1.034348127223343</v>
+        <v>0.965786454473646</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.033639801895291</v>
+        <v>0.9801257074139023</v>
       </c>
       <c r="D20">
-        <v>1.036031986123459</v>
+        <v>1.001682997945623</v>
       </c>
       <c r="E20">
-        <v>1.032943724241491</v>
+        <v>0.9899435040590905</v>
       </c>
       <c r="F20">
-        <v>1.03037118320093</v>
+        <v>0.947546345443992</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036431418903939</v>
+        <v>1.033216308470417</v>
       </c>
       <c r="J20">
-        <v>1.039851840613081</v>
+        <v>1.008444846826173</v>
       </c>
       <c r="K20">
-        <v>1.039405414885035</v>
+        <v>1.015696318278158</v>
       </c>
       <c r="L20">
-        <v>1.03632797662419</v>
+        <v>1.004165520188624</v>
       </c>
       <c r="M20">
-        <v>1.033764506322249</v>
+        <v>0.9625788060948532</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.032241417088069</v>
+        <v>0.9719117700609605</v>
       </c>
       <c r="D21">
-        <v>1.034994078610522</v>
+        <v>0.9957127164321036</v>
       </c>
       <c r="E21">
-        <v>1.031746852943334</v>
+        <v>0.9832602672134816</v>
       </c>
       <c r="F21">
-        <v>1.028255165289579</v>
+        <v>0.9354791119794708</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036027784850193</v>
+        <v>1.030348806993463</v>
       </c>
       <c r="J21">
-        <v>1.038854390415822</v>
+        <v>1.002632669123984</v>
       </c>
       <c r="K21">
-        <v>1.038577964402045</v>
+        <v>1.010775770501351</v>
       </c>
       <c r="L21">
-        <v>1.035342891838983</v>
+        <v>0.9985658738539912</v>
       </c>
       <c r="M21">
-        <v>1.031864367096296</v>
+        <v>0.9517954118460559</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.031360931828846</v>
+        <v>0.9665510098974838</v>
       </c>
       <c r="D22">
-        <v>1.034340464853719</v>
+        <v>0.9918236239216216</v>
       </c>
       <c r="E22">
-        <v>1.03099356661942</v>
+        <v>0.978908571169008</v>
       </c>
       <c r="F22">
-        <v>1.026922971792767</v>
+        <v>0.9275593863783217</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035772160873219</v>
+        <v>1.028466122196749</v>
       </c>
       <c r="J22">
-        <v>1.038225514343717</v>
+        <v>0.9988328978766489</v>
       </c>
       <c r="K22">
-        <v>1.038056008862619</v>
+        <v>1.007558815394491</v>
       </c>
       <c r="L22">
-        <v>1.034722138562484</v>
+        <v>0.9949097611752171</v>
       </c>
       <c r="M22">
-        <v>1.030667515879547</v>
+        <v>0.9447167783338606</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.031827815462166</v>
+        <v>0.9694125167179749</v>
       </c>
       <c r="D23">
-        <v>1.034687057510168</v>
+        <v>0.9938988310730208</v>
       </c>
       <c r="E23">
-        <v>1.031392971807026</v>
+        <v>0.9812304645241973</v>
       </c>
       <c r="F23">
-        <v>1.027629365163806</v>
+        <v>0.9317914236945487</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035907847294798</v>
+        <v>1.029472111518005</v>
       </c>
       <c r="J23">
-        <v>1.038559059685092</v>
+        <v>1.000861773947658</v>
       </c>
       <c r="K23">
-        <v>1.038332869990861</v>
+        <v>1.009276490920036</v>
       </c>
       <c r="L23">
-        <v>1.035051344712371</v>
+        <v>0.9968614747953148</v>
       </c>
       <c r="M23">
-        <v>1.031302198139537</v>
+        <v>0.9484994608909655</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.0336632249564</v>
+        <v>0.9802603095616822</v>
       </c>
       <c r="D24">
-        <v>1.036049369381574</v>
+        <v>1.00178094315454</v>
       </c>
       <c r="E24">
-        <v>1.032963777246038</v>
+        <v>0.9900531783526548</v>
       </c>
       <c r="F24">
-        <v>1.03040662957843</v>
+        <v>0.9477434590438478</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036438154768965</v>
+        <v>1.033263110449668</v>
       </c>
       <c r="J24">
-        <v>1.039868533808964</v>
+        <v>1.008539983718182</v>
       </c>
       <c r="K24">
-        <v>1.039419258538845</v>
+        <v>1.015776855452677</v>
       </c>
       <c r="L24">
-        <v>1.036344468383117</v>
+        <v>1.004257252414445</v>
       </c>
       <c r="M24">
-        <v>1.03379632675567</v>
+        <v>0.962754915667929</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.035787786781523</v>
+        <v>0.992088460878833</v>
       </c>
       <c r="D25">
-        <v>1.037625831710978</v>
+        <v>1.010400963883514</v>
       </c>
       <c r="E25">
-        <v>1.034783400594857</v>
+        <v>0.9997105275919747</v>
       </c>
       <c r="F25">
-        <v>1.033622256976015</v>
+        <v>0.96499385512018</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03704558066865</v>
+        <v>1.037349151431161</v>
       </c>
       <c r="J25">
-        <v>1.04138066548835</v>
+        <v>1.016885045189104</v>
       </c>
       <c r="K25">
-        <v>1.040672633958486</v>
+        <v>1.022839935751635</v>
       </c>
       <c r="L25">
-        <v>1.037839128192536</v>
+        <v>1.012313338909335</v>
       </c>
       <c r="M25">
-        <v>1.036681646051831</v>
+        <v>0.9781610448467708</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_32/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_32/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,37 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.000997504286906</v>
+        <v>1.009951560591705</v>
       </c>
       <c r="D2">
-        <v>1.016909612665745</v>
+        <v>1.030936647327402</v>
       </c>
       <c r="E2">
-        <v>1.007010503651446</v>
+        <v>1.014263841105453</v>
       </c>
       <c r="F2">
-        <v>0.9779057652731896</v>
+        <v>1.034284552687646</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040387237289237</v>
+        <v>1.052219251028933</v>
       </c>
       <c r="J2">
-        <v>1.023148421052094</v>
+        <v>1.031838642360192</v>
       </c>
       <c r="K2">
-        <v>1.028138290952796</v>
+        <v>1.041981175059881</v>
       </c>
       <c r="L2">
-        <v>1.018373027446549</v>
+        <v>1.025527971236208</v>
       </c>
       <c r="M2">
-        <v>0.9896817379734947</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.045286051259567</v>
+      </c>
+      <c r="N2">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.044413251980078</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.040754609515403</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,37 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.007198303573917</v>
+        <v>1.015638620934032</v>
       </c>
       <c r="D3">
-        <v>1.021447026295933</v>
+        <v>1.034779824860058</v>
       </c>
       <c r="E3">
-        <v>1.012104771415705</v>
+        <v>1.018987503829072</v>
       </c>
       <c r="F3">
-        <v>0.9868588068491412</v>
+        <v>1.038075304826592</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042478167761293</v>
+        <v>1.053681019555597</v>
       </c>
       <c r="J3">
-        <v>1.027494640698365</v>
+        <v>1.035711853734008</v>
       </c>
       <c r="K3">
-        <v>1.031812650043251</v>
+        <v>1.044986221358679</v>
       </c>
       <c r="L3">
-        <v>1.022585077259709</v>
+        <v>1.02938306624548</v>
       </c>
       <c r="M3">
-        <v>0.9976626397014084</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.048243124820427</v>
+      </c>
+      <c r="N3">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.046753561086791</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.042876774430886</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -497,37 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.011097111957444</v>
+        <v>1.019231684371534</v>
       </c>
       <c r="D4">
-        <v>1.024302778731231</v>
+        <v>1.037210511679161</v>
       </c>
       <c r="E4">
-        <v>1.015313558544823</v>
+        <v>1.021976793194446</v>
       </c>
       <c r="F4">
-        <v>0.9924761033079105</v>
+        <v>1.0404783136371</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043781689114033</v>
+        <v>1.054590084410011</v>
       </c>
       <c r="J4">
-        <v>1.03022115002219</v>
+        <v>1.038155915089392</v>
       </c>
       <c r="K4">
-        <v>1.034116478573567</v>
+        <v>1.046879660022287</v>
       </c>
       <c r="L4">
-        <v>1.025230609953915</v>
+        <v>1.0318170203677</v>
       </c>
       <c r="M4">
-        <v>1.002666191434931</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.050111565208582</v>
+      </c>
+      <c r="N4">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.048232292214013</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.044216480415212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -535,37 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.012710405272037</v>
+        <v>1.020730236322846</v>
       </c>
       <c r="D5">
-        <v>1.025485060072541</v>
+        <v>1.038226952501046</v>
       </c>
       <c r="E5">
-        <v>1.016642634291201</v>
+        <v>1.023226649494239</v>
       </c>
       <c r="F5">
-        <v>0.9947980906098159</v>
+        <v>1.041482877348058</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044318357319114</v>
+        <v>1.054967504614027</v>
       </c>
       <c r="J5">
-        <v>1.031347844470437</v>
+        <v>1.039176828853871</v>
       </c>
       <c r="K5">
-        <v>1.035068192341704</v>
+        <v>1.047671307134714</v>
       </c>
       <c r="L5">
-        <v>1.026324591870814</v>
+        <v>1.032834822568417</v>
       </c>
       <c r="M5">
-        <v>1.004733518475163</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.05089243725924</v>
+      </c>
+      <c r="N5">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.048850293291447</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.044783361802077</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -573,37 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.012979812351186</v>
+        <v>1.020990364194427</v>
       </c>
       <c r="D6">
-        <v>1.025682524396758</v>
+        <v>1.038406016581816</v>
       </c>
       <c r="E6">
-        <v>1.01686465436306</v>
+        <v>1.023446102948577</v>
       </c>
       <c r="F6">
-        <v>0.9951857158099119</v>
+        <v>1.041657964623531</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044407815707179</v>
+        <v>1.055035032128279</v>
       </c>
       <c r="J6">
-        <v>1.031535903933241</v>
+        <v>1.039356853000308</v>
       </c>
       <c r="K6">
-        <v>1.035227026204145</v>
+        <v>1.047812595408665</v>
       </c>
       <c r="L6">
-        <v>1.026507234884412</v>
+        <v>1.033015283172986</v>
       </c>
       <c r="M6">
-        <v>1.005078573728764</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.051029953915974</v>
+      </c>
+      <c r="N6">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.048959127255167</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.044891950925293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -611,37 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.01111876832008</v>
+        <v>1.019278019288901</v>
       </c>
       <c r="D7">
-        <v>1.024318647064258</v>
+        <v>1.037248905079522</v>
       </c>
       <c r="E7">
-        <v>1.015331394567266</v>
+        <v>1.0220221021799</v>
       </c>
       <c r="F7">
-        <v>0.9925072818658339</v>
+        <v>1.040510961315407</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043788903988977</v>
+        <v>1.054607757109412</v>
       </c>
       <c r="J7">
-        <v>1.030236280436989</v>
+        <v>1.03819520896968</v>
       </c>
       <c r="K7">
-        <v>1.03412926043966</v>
+        <v>1.046914772325097</v>
       </c>
       <c r="L7">
-        <v>1.025245298121574</v>
+        <v>1.031858896440625</v>
       </c>
       <c r="M7">
-        <v>1.002693954394594</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.050141009835544</v>
+      </c>
+      <c r="N7">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.048255595415179</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.044261298691036</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -649,37 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.003117486587163</v>
+        <v>1.011926006734929</v>
       </c>
       <c r="D8">
-        <v>1.018460259223919</v>
+        <v>1.032279087707155</v>
       </c>
       <c r="E8">
-        <v>1.008750927911828</v>
+        <v>1.01591175069984</v>
       </c>
       <c r="F8">
-        <v>0.9809695499804334</v>
+        <v>1.035600886721327</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041104434461747</v>
+        <v>1.052737128089782</v>
       </c>
       <c r="J8">
-        <v>1.024635642065801</v>
+        <v>1.033193827656173</v>
       </c>
       <c r="K8">
-        <v>1.029395848355592</v>
+        <v>1.043038873754225</v>
       </c>
       <c r="L8">
-        <v>1.019813652832136</v>
+        <v>1.026880415914166</v>
       </c>
       <c r="M8">
-        <v>0.9924136241483669</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.046319284185502</v>
+      </c>
+      <c r="N8">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.045230981699817</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.041525311651904</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -687,37 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9880786154201689</v>
+        <v>0.9982186448719591</v>
       </c>
       <c r="D9">
-        <v>1.007475869795337</v>
+        <v>1.023026703987949</v>
       </c>
       <c r="E9">
-        <v>0.9964322187012735</v>
+        <v>1.00454992465197</v>
       </c>
       <c r="F9">
-        <v>0.9591607937381059</v>
+        <v>1.026512622780049</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035970144146144</v>
+        <v>1.049126732010641</v>
       </c>
       <c r="J9">
-        <v>1.014059487772447</v>
+        <v>1.023834464580463</v>
       </c>
       <c r="K9">
-        <v>1.02044880958168</v>
+        <v>1.035756918200109</v>
       </c>
       <c r="L9">
-        <v>1.009583447106835</v>
+        <v>1.017569611319713</v>
       </c>
       <c r="M9">
-        <v>0.9729531362636026</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.039189712989168</v>
+      </c>
+      <c r="N9">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.039588418981971</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.036373309841589</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -725,37 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.977310730165365</v>
+        <v>0.9886979145862341</v>
       </c>
       <c r="D10">
-        <v>0.9996354399364246</v>
+        <v>1.016654681442427</v>
       </c>
       <c r="E10">
-        <v>0.9876510034435255</v>
+        <v>0.9967306083967141</v>
       </c>
       <c r="F10">
-        <v>0.9434195115659476</v>
+        <v>1.020332033767745</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032236091487988</v>
+        <v>1.046575059244179</v>
       </c>
       <c r="J10">
-        <v>1.006454402365529</v>
+        <v>1.01736723715879</v>
       </c>
       <c r="K10">
-        <v>1.014011279748953</v>
+        <v>1.030729603477639</v>
       </c>
       <c r="L10">
-        <v>1.002246860817581</v>
+        <v>1.011159144692813</v>
       </c>
       <c r="M10">
-        <v>0.9588914451615065</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.034343640838432</v>
+      </c>
+      <c r="N10">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.035804668454053</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.032835498305494</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -763,37 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9724432472624283</v>
+        <v>0.985674494048661</v>
       </c>
       <c r="D11">
-        <v>0.99609861200424</v>
+        <v>1.014879929307385</v>
       </c>
       <c r="E11">
-        <v>0.9836921362678814</v>
+        <v>0.9945687623627554</v>
       </c>
       <c r="F11">
-        <v>0.9362623132751552</v>
+        <v>1.019015020036606</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03053499871163</v>
+        <v>1.045958145121144</v>
       </c>
       <c r="J11">
-        <v>1.003009117442746</v>
+        <v>1.015655617730991</v>
       </c>
       <c r="K11">
-        <v>1.011094479747551</v>
+        <v>1.029526583693169</v>
       </c>
       <c r="L11">
-        <v>0.998928290276252</v>
+        <v>1.009593835894512</v>
       </c>
       <c r="M11">
-        <v>0.9524953870565018</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.033587034409237</v>
+      </c>
+      <c r="N11">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.035643538371775</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.032017869765493</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -801,37 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9706016083117597</v>
+        <v>0.9849579688744725</v>
       </c>
       <c r="D12">
-        <v>0.9947616790087177</v>
+        <v>1.014573442135038</v>
       </c>
       <c r="E12">
-        <v>0.9821959862387922</v>
+        <v>0.9942183026560492</v>
       </c>
       <c r="F12">
-        <v>0.9335469256675705</v>
+        <v>1.019016913336684</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029889455573679</v>
+        <v>1.0459056750904</v>
       </c>
       <c r="J12">
-        <v>1.001704462715529</v>
+        <v>1.015412865096302</v>
       </c>
       <c r="K12">
-        <v>1.009989929834213</v>
+        <v>1.029426664516584</v>
       </c>
       <c r="L12">
-        <v>0.9976724211646049</v>
+        <v>1.009457115514121</v>
       </c>
       <c r="M12">
-        <v>0.9500685037535946</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.033788628438617</v>
+      </c>
+      <c r="N12">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.036130285435193</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.03194722315115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -839,37 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9709982183439603</v>
+        <v>0.9860121584803909</v>
       </c>
       <c r="D13">
-        <v>0.9950495383985807</v>
+        <v>1.01541432322767</v>
       </c>
       <c r="E13">
-        <v>0.9825181135744453</v>
+        <v>0.9952784808838168</v>
       </c>
       <c r="F13">
-        <v>0.9341320596084058</v>
+        <v>1.020074566809513</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030028563909391</v>
+        <v>1.046308862968237</v>
       </c>
       <c r="J13">
-        <v>1.00198547937054</v>
+        <v>1.016325702743941</v>
       </c>
       <c r="K13">
-        <v>1.010227844985608</v>
+        <v>1.030208986754295</v>
       </c>
       <c r="L13">
-        <v>0.9979428927673766</v>
+        <v>1.010452360187846</v>
       </c>
       <c r="M13">
-        <v>0.9505914784393599</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.034784239338493</v>
+      </c>
+      <c r="N13">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.037194729740647</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.032497852917079</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -877,37 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9722917208944117</v>
+        <v>0.9875430080488553</v>
       </c>
       <c r="D14">
-        <v>0.9959885857120642</v>
+        <v>1.016516019808787</v>
       </c>
       <c r="E14">
-        <v>0.9835690006390971</v>
+        <v>0.9966499669545658</v>
       </c>
       <c r="F14">
-        <v>0.9360390545853411</v>
+        <v>1.021286125721925</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030481923451125</v>
+        <v>1.046793885201169</v>
       </c>
       <c r="J14">
-        <v>1.002901795542311</v>
+        <v>1.017479763760333</v>
       </c>
       <c r="K14">
-        <v>1.011003618766661</v>
+        <v>1.031149617297141</v>
       </c>
       <c r="L14">
-        <v>0.9988249650239265</v>
+        <v>1.011652389939445</v>
       </c>
       <c r="M14">
-        <v>0.9522958538251981</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.035833937345087</v>
+      </c>
+      <c r="N14">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.038198056315475</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.033164342970691</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -915,37 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9730841412097557</v>
+        <v>0.9883170380689399</v>
       </c>
       <c r="D15">
-        <v>0.996564029271798</v>
+        <v>1.017050625917025</v>
       </c>
       <c r="E15">
-        <v>0.9842130193363869</v>
+        <v>0.9973083740348875</v>
       </c>
       <c r="F15">
-        <v>0.9372062961327675</v>
+        <v>1.021834131783931</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03075940719765</v>
+        <v>1.047019653209918</v>
       </c>
       <c r="J15">
-        <v>1.003462999624833</v>
+        <v>1.018029964806067</v>
       </c>
       <c r="K15">
-        <v>1.011478745393983</v>
+        <v>1.03158781730734</v>
       </c>
       <c r="L15">
-        <v>0.999365302784596</v>
+        <v>1.012209018607995</v>
       </c>
       <c r="M15">
-        <v>0.9533390437776804</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.036286001386935</v>
+      </c>
+      <c r="N15">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.038592942579727</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.03348005224146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -953,37 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9776292165727649</v>
+        <v>0.9921618316820777</v>
       </c>
       <c r="D16">
-        <v>0.9998670233156303</v>
+        <v>1.019601655965092</v>
       </c>
       <c r="E16">
-        <v>0.9879102665690196</v>
+        <v>1.000415212177129</v>
       </c>
       <c r="F16">
-        <v>0.9438868621056489</v>
+        <v>1.024287693355998</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032347128249557</v>
+        <v>1.04804730188996</v>
       </c>
       <c r="J16">
-        <v>1.006679678293545</v>
+        <v>1.020612128445945</v>
       </c>
       <c r="K16">
-        <v>1.014201994306517</v>
+        <v>1.033590125522536</v>
       </c>
       <c r="L16">
-        <v>1.002463959483928</v>
+        <v>1.01474031817035</v>
       </c>
       <c r="M16">
-        <v>0.9593090516510714</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.038196416671588</v>
+      </c>
+      <c r="N16">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.040064189833715</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.034898923273907</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9804234607405374</v>
+        <v>0.9943128108929031</v>
       </c>
       <c r="D17">
-        <v>1.001899667128925</v>
+        <v>1.020984976299526</v>
       </c>
       <c r="E17">
-        <v>0.990186121243684</v>
+        <v>1.002087307424657</v>
       </c>
       <c r="F17">
-        <v>0.9479823542448392</v>
+        <v>1.025532886831992</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033319830563829</v>
+        <v>1.048579526802896</v>
       </c>
       <c r="J17">
-        <v>1.008655294228906</v>
+        <v>1.021991307452465</v>
       </c>
       <c r="K17">
-        <v>1.015874470083229</v>
+        <v>1.034634802337952</v>
       </c>
       <c r="L17">
-        <v>1.004368439556841</v>
+        <v>1.016058837295299</v>
       </c>
       <c r="M17">
-        <v>0.9629683529747399</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.039107568139417</v>
+      </c>
+      <c r="N17">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.040655314218103</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.035640133564062</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9820337358657035</v>
+        <v>0.9951655327023868</v>
       </c>
       <c r="D18">
-        <v>1.003071724913993</v>
+        <v>1.021444343585894</v>
       </c>
       <c r="E18">
-        <v>0.9914986424902857</v>
+        <v>1.002627727078672</v>
       </c>
       <c r="F18">
-        <v>0.950338694631517</v>
+        <v>1.025783495739954</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033879141236625</v>
+        <v>1.048713034077703</v>
       </c>
       <c r="J18">
-        <v>1.009793101489093</v>
+        <v>1.022412432797972</v>
       </c>
       <c r="K18">
-        <v>1.016837646202712</v>
+        <v>1.034902908882243</v>
       </c>
       <c r="L18">
-        <v>1.005465751919875</v>
+        <v>1.016401256164464</v>
       </c>
       <c r="M18">
-        <v>0.9650734857972244</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.039171534547387</v>
+      </c>
+      <c r="N18">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.040468125663871</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.035818048180337</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9825795609549115</v>
+        <v>0.9948581907832279</v>
       </c>
       <c r="D19">
-        <v>1.003469121455528</v>
+        <v>1.021082155276428</v>
       </c>
       <c r="E19">
-        <v>0.9919437034541504</v>
+        <v>1.002167089150888</v>
       </c>
       <c r="F19">
-        <v>0.951136792573522</v>
+        <v>1.025136645592106</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034068515325699</v>
+        <v>1.048495663551508</v>
       </c>
       <c r="J19">
-        <v>1.010178656712043</v>
+        <v>1.021981094406305</v>
       </c>
       <c r="K19">
-        <v>1.017164017324435</v>
+        <v>1.03448399508462</v>
       </c>
       <c r="L19">
-        <v>1.005837664469478</v>
+        <v>1.015884177163824</v>
       </c>
       <c r="M19">
-        <v>0.965786454473646</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.038472854116735</v>
+      </c>
+      <c r="N19">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.039589990929365</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.035528263973521</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9801257074139023</v>
+        <v>0.9912580987466287</v>
       </c>
       <c r="D20">
-        <v>1.001682997945623</v>
+        <v>1.018385796010547</v>
       </c>
       <c r="E20">
-        <v>0.9899435040590905</v>
+        <v>0.9988540174123152</v>
       </c>
       <c r="F20">
-        <v>0.947546345443992</v>
+        <v>1.02199861515037</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033216308470417</v>
+        <v>1.047282027964881</v>
       </c>
       <c r="J20">
-        <v>1.008444846826173</v>
+        <v>1.019130215529202</v>
       </c>
       <c r="K20">
-        <v>1.015696318278158</v>
+        <v>1.03211287811168</v>
       </c>
       <c r="L20">
-        <v>1.004165520188624</v>
+        <v>1.012917047517603</v>
       </c>
       <c r="M20">
-        <v>0.9625788060948532</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.03566536886511</v>
+      </c>
+      <c r="N20">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.036840097455327</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.033855735438318</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9719117700609605</v>
+        <v>0.9838052588852747</v>
       </c>
       <c r="D21">
-        <v>0.9957127164321036</v>
+        <v>1.013357925963419</v>
       </c>
       <c r="E21">
-        <v>0.9832602672134816</v>
+        <v>0.9926860123275207</v>
       </c>
       <c r="F21">
-        <v>0.9354791119794708</v>
+        <v>1.01705588453113</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030348806993463</v>
+        <v>1.045218464241091</v>
       </c>
       <c r="J21">
-        <v>1.002632669123984</v>
+        <v>1.013996034645609</v>
       </c>
       <c r="K21">
-        <v>1.010775770501351</v>
+        <v>1.028090571815297</v>
       </c>
       <c r="L21">
-        <v>0.9985658738539912</v>
+        <v>1.007807288073144</v>
       </c>
       <c r="M21">
-        <v>0.9517954118460559</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.031721175721415</v>
+      </c>
+      <c r="N21">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.033677540505048</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.031015067145478</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9665510098974838</v>
+        <v>0.9790239837034221</v>
       </c>
       <c r="D22">
-        <v>0.9918236239216216</v>
+        <v>1.010146968550745</v>
       </c>
       <c r="E22">
-        <v>0.978908571169008</v>
+        <v>0.9887463727063164</v>
       </c>
       <c r="F22">
-        <v>0.9275593863783217</v>
+        <v>1.013937092190371</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028466122196749</v>
+        <v>1.043887686380593</v>
       </c>
       <c r="J22">
-        <v>0.9988328978766489</v>
+        <v>1.010713263739969</v>
       </c>
       <c r="K22">
-        <v>1.007558815394491</v>
+        <v>1.025520056889462</v>
       </c>
       <c r="L22">
-        <v>0.9949097611752171</v>
+        <v>1.004544111909055</v>
       </c>
       <c r="M22">
-        <v>0.9447167783338606</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.029237417963939</v>
+      </c>
+      <c r="N22">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.031711791176389</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.029184018130256</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9694125167179749</v>
+        <v>0.9815432191070417</v>
       </c>
       <c r="D23">
-        <v>0.9938988310730208</v>
+        <v>1.011831528420163</v>
       </c>
       <c r="E23">
-        <v>0.9812304645241973</v>
+        <v>0.990812894915747</v>
       </c>
       <c r="F23">
-        <v>0.9317914236945487</v>
+        <v>1.015577515420659</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029472111518005</v>
+        <v>1.044585019259104</v>
       </c>
       <c r="J23">
-        <v>1.000861773947658</v>
+        <v>1.012435204432167</v>
       </c>
       <c r="K23">
-        <v>1.009276490920036</v>
+        <v>1.026864719102617</v>
       </c>
       <c r="L23">
-        <v>0.9968614747953148</v>
+        <v>1.006251485086572</v>
       </c>
       <c r="M23">
-        <v>0.9484994608909655</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.030540752849547</v>
+      </c>
+      <c r="N23">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.032743305371795</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.030125065270465</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9802603095616822</v>
+        <v>0.9912187218117821</v>
       </c>
       <c r="D24">
-        <v>1.00178094315454</v>
+        <v>1.018326178232921</v>
       </c>
       <c r="E24">
-        <v>0.9900531783526548</v>
+        <v>0.9987810822403133</v>
       </c>
       <c r="F24">
-        <v>0.9477434590438478</v>
+        <v>1.021907962203995</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033263110449668</v>
+        <v>1.047243643753163</v>
       </c>
       <c r="J24">
-        <v>1.008539983718182</v>
+        <v>1.019059041026632</v>
       </c>
       <c r="K24">
-        <v>1.015776855452677</v>
+        <v>1.032038931511366</v>
       </c>
       <c r="L24">
-        <v>1.004257252414445</v>
+        <v>1.012829637307101</v>
       </c>
       <c r="M24">
-        <v>0.962754915667929</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.035560970670614</v>
+      </c>
+      <c r="N24">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.036716503338352</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.03377597195555</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.992088460878833</v>
+        <v>1.001898245058096</v>
       </c>
       <c r="D25">
-        <v>1.010400963883514</v>
+        <v>1.025518010835775</v>
       </c>
       <c r="E25">
-        <v>0.9997105275919747</v>
+        <v>1.007606989683959</v>
       </c>
       <c r="F25">
-        <v>0.96499385512018</v>
+        <v>1.028946092829772</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037349151431161</v>
+        <v>1.050117839834514</v>
       </c>
       <c r="J25">
-        <v>1.016885045189104</v>
+        <v>1.026361894125895</v>
       </c>
       <c r="K25">
-        <v>1.022839935751635</v>
+        <v>1.037732698744062</v>
       </c>
       <c r="L25">
-        <v>1.012313338909335</v>
+        <v>1.020088353606208</v>
       </c>
       <c r="M25">
-        <v>0.9781610448467708</v>
+        <v>1.041111081742147</v>
+      </c>
+      <c r="N25">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.041109053845856</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.03779889079879</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_32/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_32/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.009951560591705</v>
+        <v>1.008642852796187</v>
       </c>
       <c r="D2">
-        <v>1.030936647327402</v>
+        <v>1.029372898740756</v>
       </c>
       <c r="E2">
-        <v>1.014263841105453</v>
+        <v>1.01343359042177</v>
       </c>
       <c r="F2">
-        <v>1.034284552687646</v>
+        <v>1.033118206933723</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.052219251028933</v>
+        <v>1.051425193297966</v>
       </c>
       <c r="J2">
-        <v>1.031838642360192</v>
+        <v>1.030568095242183</v>
       </c>
       <c r="K2">
-        <v>1.041981175059881</v>
+        <v>1.040437644657809</v>
       </c>
       <c r="L2">
-        <v>1.025527971236208</v>
+        <v>1.024708893408836</v>
       </c>
       <c r="M2">
-        <v>1.045286051259567</v>
+        <v>1.044134656461296</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.044413251980078</v>
+        <v>1.043502004539683</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.040754609515403</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.039671956426747</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022408197651917</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.015638620934032</v>
+        <v>1.013937468804994</v>
       </c>
       <c r="D3">
-        <v>1.034779824860058</v>
+        <v>1.032815427176573</v>
       </c>
       <c r="E3">
-        <v>1.018987503829072</v>
+        <v>1.017770943164502</v>
       </c>
       <c r="F3">
-        <v>1.038075304826592</v>
+        <v>1.036603655696735</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.053681019555597</v>
+        <v>1.052682454596346</v>
       </c>
       <c r="J3">
-        <v>1.035711853734008</v>
+        <v>1.034055263171189</v>
       </c>
       <c r="K3">
-        <v>1.044986221358679</v>
+        <v>1.043044963702272</v>
       </c>
       <c r="L3">
-        <v>1.02938306624548</v>
+        <v>1.028181380740374</v>
       </c>
       <c r="M3">
-        <v>1.048243124820427</v>
+        <v>1.046788665145665</v>
       </c>
       <c r="N3">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.046753561086791</v>
+        <v>1.045602462747287</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.042876774430886</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.041512611372978</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.02303773727793</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.019231684371534</v>
+        <v>1.017287455955998</v>
       </c>
       <c r="D4">
-        <v>1.037210511679161</v>
+        <v>1.03499617744868</v>
       </c>
       <c r="E4">
-        <v>1.021976793194446</v>
+        <v>1.020521096526948</v>
       </c>
       <c r="F4">
-        <v>1.0404783136371</v>
+        <v>1.038816632213123</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.054590084410011</v>
+        <v>1.053463686567776</v>
       </c>
       <c r="J4">
-        <v>1.038155915089392</v>
+        <v>1.036259051309937</v>
       </c>
       <c r="K4">
-        <v>1.046879660022287</v>
+        <v>1.044689808647603</v>
       </c>
       <c r="L4">
-        <v>1.0318170203677</v>
+        <v>1.030378001526967</v>
       </c>
       <c r="M4">
-        <v>1.050111565208582</v>
+        <v>1.048468102669251</v>
       </c>
       <c r="N4">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.048232292214013</v>
+        <v>1.046931614420971</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.044216480415212</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.04267662116417</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023432263355627</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.020730236322846</v>
+        <v>1.018684859120872</v>
       </c>
       <c r="D5">
-        <v>1.038226952501046</v>
+        <v>1.035908553887089</v>
       </c>
       <c r="E5">
-        <v>1.023226649494239</v>
+        <v>1.021671075233126</v>
       </c>
       <c r="F5">
-        <v>1.041482877348058</v>
+        <v>1.039742111379496</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.054967504614027</v>
+        <v>1.053787824013491</v>
       </c>
       <c r="J5">
-        <v>1.039176828853871</v>
+        <v>1.03717974248212</v>
       </c>
       <c r="K5">
-        <v>1.047671307134714</v>
+        <v>1.04537784771211</v>
       </c>
       <c r="L5">
-        <v>1.032834822568417</v>
+        <v>1.031296575433541</v>
       </c>
       <c r="M5">
-        <v>1.05089243725924</v>
+        <v>1.049170240936373</v>
       </c>
       <c r="N5">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.048850293291447</v>
+        <v>1.047487304672415</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.044783361802077</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.043170957876328</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023598051875544</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.020990364194427</v>
+        <v>1.018926434474827</v>
       </c>
       <c r="D6">
-        <v>1.038406016581816</v>
+        <v>1.036068923006563</v>
       </c>
       <c r="E6">
-        <v>1.023446102948577</v>
+        <v>1.021871701477598</v>
       </c>
       <c r="F6">
-        <v>1.041657964623531</v>
+        <v>1.039902925719263</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.055035032128279</v>
+        <v>1.053845779791367</v>
       </c>
       <c r="J6">
-        <v>1.039356853000308</v>
+        <v>1.037341392713218</v>
       </c>
       <c r="K6">
-        <v>1.047812595408665</v>
+        <v>1.045500524757769</v>
       </c>
       <c r="L6">
-        <v>1.033015283172986</v>
+        <v>1.031458334555485</v>
       </c>
       <c r="M6">
-        <v>1.051029953915974</v>
+        <v>1.049293549692553</v>
       </c>
       <c r="N6">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.048959127255167</v>
+        <v>1.04758489434477</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.044891950925293</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.043267261565644</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023629267981554</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.019278019288901</v>
+        <v>1.017327693561302</v>
       </c>
       <c r="D7">
-        <v>1.037248905079522</v>
+        <v>1.035029455815754</v>
       </c>
       <c r="E7">
-        <v>1.0220221021799</v>
+        <v>1.020558970222621</v>
       </c>
       <c r="F7">
-        <v>1.040510961315407</v>
+        <v>1.038845193770229</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.054607757109412</v>
+        <v>1.053478752202051</v>
       </c>
       <c r="J7">
-        <v>1.03819520896968</v>
+        <v>1.03629237368471</v>
       </c>
       <c r="K7">
-        <v>1.046914772325097</v>
+        <v>1.044719852217012</v>
       </c>
       <c r="L7">
-        <v>1.031858896440625</v>
+        <v>1.030412520208901</v>
       </c>
       <c r="M7">
-        <v>1.050141009835544</v>
+        <v>1.048493498581653</v>
       </c>
       <c r="N7">
-        <v>1.005712725503983</v>
+        <v>1.009672849942804</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.048255595415179</v>
+        <v>1.046951713405356</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.044261298691036</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.042719866411978</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023444119989461</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.011926006734929</v>
+        <v>1.010475762893501</v>
       </c>
       <c r="D8">
-        <v>1.032279087707155</v>
+        <v>1.030572817076361</v>
       </c>
       <c r="E8">
-        <v>1.01591175069984</v>
+        <v>1.014940204487967</v>
       </c>
       <c r="F8">
-        <v>1.035600886721327</v>
+        <v>1.034325569935954</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.052737128089782</v>
+        <v>1.051870387894781</v>
       </c>
       <c r="J8">
-        <v>1.033193827656173</v>
+        <v>1.031784389022202</v>
       </c>
       <c r="K8">
-        <v>1.043038873754225</v>
+        <v>1.041353992072409</v>
       </c>
       <c r="L8">
-        <v>1.026880415914166</v>
+        <v>1.025921533790542</v>
       </c>
       <c r="M8">
-        <v>1.046319284185502</v>
+        <v>1.045059818281272</v>
       </c>
       <c r="N8">
-        <v>1.005712725503983</v>
+        <v>1.009744168770165</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.045230981699817</v>
+        <v>1.04423420468948</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.041525311651904</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.040344987230951</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022636013863411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9982186448719591</v>
+        <v>0.9977494233832613</v>
       </c>
       <c r="D9">
-        <v>1.023026703987949</v>
+        <v>1.022308673604474</v>
       </c>
       <c r="E9">
-        <v>1.00454992465197</v>
+        <v>1.004545460485471</v>
       </c>
       <c r="F9">
-        <v>1.026512622780049</v>
+        <v>1.025993400861762</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.049126732010641</v>
+        <v>1.048762876814752</v>
       </c>
       <c r="J9">
-        <v>1.023834464580463</v>
+        <v>1.023381906395368</v>
       </c>
       <c r="K9">
-        <v>1.035756918200109</v>
+        <v>1.035049887722533</v>
       </c>
       <c r="L9">
-        <v>1.017569611319713</v>
+        <v>1.017565218742617</v>
       </c>
       <c r="M9">
-        <v>1.039189712989168</v>
+        <v>1.038678374642328</v>
       </c>
       <c r="N9">
-        <v>1.005712725503983</v>
+        <v>1.009756663622889</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.039588418981971</v>
+        <v>1.039183728337994</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.036373309841589</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.035884138025023</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021093756542791</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9886979145862341</v>
+        <v>0.9889167648568546</v>
       </c>
       <c r="D10">
-        <v>1.016654681442427</v>
+        <v>1.016623968724089</v>
       </c>
       <c r="E10">
-        <v>0.9967306083967141</v>
+        <v>0.9973937970252811</v>
       </c>
       <c r="F10">
-        <v>1.020332033767745</v>
+        <v>1.0203404590658</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.046575059244179</v>
+        <v>1.046559520667515</v>
       </c>
       <c r="J10">
-        <v>1.01736723715879</v>
+        <v>1.017577122769344</v>
       </c>
       <c r="K10">
-        <v>1.030729603477639</v>
+        <v>1.030699422052024</v>
       </c>
       <c r="L10">
-        <v>1.011159144692813</v>
+        <v>1.011810267250687</v>
       </c>
       <c r="M10">
-        <v>1.034343640838432</v>
+        <v>1.03435192175076</v>
       </c>
       <c r="N10">
-        <v>1.005712725503983</v>
+        <v>1.009913726784964</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.035804668454053</v>
+        <v>1.035811221872746</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.032835498305494</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.03282661071591</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020037078920626</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.985674494048661</v>
+        <v>0.9858957869013228</v>
       </c>
       <c r="D11">
-        <v>1.014879929307385</v>
+        <v>1.01490564053444</v>
       </c>
       <c r="E11">
-        <v>0.9945687623627554</v>
+        <v>0.9951580053757978</v>
       </c>
       <c r="F11">
-        <v>1.019015020036606</v>
+        <v>1.019057871702337</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.045958145121144</v>
+        <v>1.045971144871292</v>
       </c>
       <c r="J11">
-        <v>1.015655617730991</v>
+        <v>1.01586732109236</v>
       </c>
       <c r="K11">
-        <v>1.029526583693169</v>
+        <v>1.029551828378047</v>
       </c>
       <c r="L11">
-        <v>1.009593835894512</v>
+        <v>1.01017181597695</v>
       </c>
       <c r="M11">
-        <v>1.033587034409237</v>
+        <v>1.033629116705615</v>
       </c>
       <c r="N11">
-        <v>1.005712725503983</v>
+        <v>1.010219287442624</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.035643538371775</v>
+        <v>1.035676824970356</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.032017869765493</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.032051396296254</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.019919390231239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9849579688744725</v>
+        <v>0.985071055615708</v>
       </c>
       <c r="D12">
-        <v>1.014573442135038</v>
+        <v>1.014531885036834</v>
       </c>
       <c r="E12">
-        <v>0.9942183026560492</v>
+        <v>0.9946445663046282</v>
       </c>
       <c r="F12">
-        <v>1.019016913336684</v>
+        <v>1.019001666007734</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.0459056750904</v>
+        <v>1.045884668292051</v>
       </c>
       <c r="J12">
-        <v>1.015412865096302</v>
+        <v>1.015520954956379</v>
       </c>
       <c r="K12">
-        <v>1.029426664516584</v>
+        <v>1.029385874098698</v>
       </c>
       <c r="L12">
-        <v>1.009457115514121</v>
+        <v>1.009875092262639</v>
       </c>
       <c r="M12">
-        <v>1.033788628438617</v>
+        <v>1.033773659211823</v>
       </c>
       <c r="N12">
-        <v>1.005712725503983</v>
+        <v>1.01035478389643</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.036130285435193</v>
+        <v>1.036118448984463</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.03194722315115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.031934062856573</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.019996666696368</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9860121584803909</v>
+        <v>0.9859192354759228</v>
       </c>
       <c r="D13">
-        <v>1.01541432322767</v>
+        <v>1.015201107855319</v>
       </c>
       <c r="E13">
-        <v>0.9952784808838168</v>
+        <v>0.9954561416669865</v>
       </c>
       <c r="F13">
-        <v>1.020074566809513</v>
+        <v>1.019922549215888</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.046308862968237</v>
+        <v>1.04620107575842</v>
       </c>
       <c r="J13">
-        <v>1.016325702743941</v>
+        <v>1.016236859303236</v>
       </c>
       <c r="K13">
-        <v>1.030208986754295</v>
+        <v>1.029999684202753</v>
       </c>
       <c r="L13">
-        <v>1.010452360187846</v>
+        <v>1.010626587210656</v>
       </c>
       <c r="M13">
-        <v>1.034784239338493</v>
+        <v>1.034634978219473</v>
       </c>
       <c r="N13">
-        <v>1.005712725503983</v>
+        <v>1.010324862518226</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.037194729740647</v>
+        <v>1.037076735914045</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.032497852917079</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.032365296019068</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.02024491457764</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9875430080488553</v>
+        <v>0.9872665171083265</v>
       </c>
       <c r="D14">
-        <v>1.016516019808787</v>
+        <v>1.016139062065111</v>
       </c>
       <c r="E14">
-        <v>0.9966499669545658</v>
+        <v>0.9966202681416159</v>
       </c>
       <c r="F14">
-        <v>1.021286125721925</v>
+        <v>1.02100586577353</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.046793885201169</v>
+        <v>1.046603284396616</v>
       </c>
       <c r="J14">
-        <v>1.017479763760333</v>
+        <v>1.017215215336729</v>
       </c>
       <c r="K14">
-        <v>1.031149617297141</v>
+        <v>1.030779483442884</v>
       </c>
       <c r="L14">
-        <v>1.011652389939445</v>
+        <v>1.011623256902444</v>
       </c>
       <c r="M14">
-        <v>1.035833937345087</v>
+        <v>1.035558688823803</v>
       </c>
       <c r="N14">
-        <v>1.005712725503983</v>
+        <v>1.010230087706879</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.038198056315475</v>
+        <v>1.037980496366751</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.033164342970691</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.032918200128268</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.02049442883636</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9883170380689399</v>
+        <v>0.9879709155479991</v>
       </c>
       <c r="D15">
-        <v>1.017050625917025</v>
+        <v>1.01660792013417</v>
       </c>
       <c r="E15">
-        <v>0.9973083740348875</v>
+        <v>0.9972052403739385</v>
       </c>
       <c r="F15">
-        <v>1.021834131783931</v>
+        <v>1.021503009568622</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.047019653209918</v>
+        <v>1.046795783066769</v>
       </c>
       <c r="J15">
-        <v>1.018029964806067</v>
+        <v>1.017698648681266</v>
       </c>
       <c r="K15">
-        <v>1.03158781730734</v>
+        <v>1.031153060664209</v>
       </c>
       <c r="L15">
-        <v>1.012209018607995</v>
+        <v>1.012107833010568</v>
       </c>
       <c r="M15">
-        <v>1.036286001386935</v>
+        <v>1.035960751886714</v>
       </c>
       <c r="N15">
-        <v>1.005712725503983</v>
+        <v>1.01017436097146</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.038592942579727</v>
+        <v>1.038335867951925</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.03348005224146</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.033188786756426</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.02059843032441</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9921618316820777</v>
+        <v>0.9915696367185919</v>
       </c>
       <c r="D16">
-        <v>1.019601655965092</v>
+        <v>1.018904373291254</v>
       </c>
       <c r="E16">
-        <v>1.000415212177129</v>
+        <v>1.000086216199116</v>
       </c>
       <c r="F16">
-        <v>1.024287693355998</v>
+        <v>1.023763002556606</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.04804730188996</v>
+        <v>1.047694471556567</v>
       </c>
       <c r="J16">
-        <v>1.020612128445945</v>
+        <v>1.020043902342615</v>
       </c>
       <c r="K16">
-        <v>1.033590125522536</v>
+        <v>1.0329047901214</v>
       </c>
       <c r="L16">
-        <v>1.01474031817035</v>
+        <v>1.014417240992089</v>
       </c>
       <c r="M16">
-        <v>1.038196416671588</v>
+        <v>1.037680608135223</v>
       </c>
       <c r="N16">
-        <v>1.005712725503983</v>
+        <v>1.009896956512875</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.040064189833715</v>
+        <v>1.039656486902074</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.034898923273907</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.034430776147829</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021008497251164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9943128108929031</v>
+        <v>0.9936251783024475</v>
       </c>
       <c r="D17">
-        <v>1.020984976299526</v>
+        <v>1.02017610573215</v>
       </c>
       <c r="E17">
-        <v>1.002087307424657</v>
+        <v>1.00168989150745</v>
       </c>
       <c r="F17">
-        <v>1.025532886831992</v>
+        <v>1.024925070926968</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.048579526802896</v>
+        <v>1.048170071436052</v>
       </c>
       <c r="J17">
-        <v>1.021991307452465</v>
+        <v>1.021330555070797</v>
       </c>
       <c r="K17">
-        <v>1.034634802337952</v>
+        <v>1.033839387058652</v>
       </c>
       <c r="L17">
-        <v>1.016058837295299</v>
+        <v>1.015668355540759</v>
       </c>
       <c r="M17">
-        <v>1.039107568139417</v>
+        <v>1.038509745463052</v>
       </c>
       <c r="N17">
-        <v>1.005712725503983</v>
+        <v>1.009769981040597</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.040655314218103</v>
+        <v>1.040182738774082</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.035640133564062</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.035094397336414</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021192392932773</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9951655327023868</v>
+        <v>0.9945165342046697</v>
       </c>
       <c r="D18">
-        <v>1.021444343585894</v>
+        <v>1.020647713373547</v>
       </c>
       <c r="E18">
-        <v>1.002627727078672</v>
+        <v>1.002307551331129</v>
       </c>
       <c r="F18">
-        <v>1.025783495739954</v>
+        <v>1.025188768804082</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.048713034077703</v>
+        <v>1.048309687123556</v>
       </c>
       <c r="J18">
-        <v>1.022412432797972</v>
+        <v>1.021788312947628</v>
       </c>
       <c r="K18">
-        <v>1.034902908882243</v>
+        <v>1.034119310471001</v>
       </c>
       <c r="L18">
-        <v>1.016401256164464</v>
+        <v>1.016086571958166</v>
       </c>
       <c r="M18">
-        <v>1.039171534547387</v>
+        <v>1.038586428687384</v>
       </c>
       <c r="N18">
-        <v>1.005712725503983</v>
+        <v>1.009714664310362</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.040468125663871</v>
+        <v>1.040005506248609</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.035818048180337</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.035279524983165</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021180287768912</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9948581907832279</v>
+        <v>0.9943681585381632</v>
       </c>
       <c r="D19">
-        <v>1.021082155276428</v>
+        <v>1.020409891623581</v>
       </c>
       <c r="E19">
-        <v>1.002167089150888</v>
+        <v>1.002051869490312</v>
       </c>
       <c r="F19">
-        <v>1.025136645592106</v>
+        <v>1.024642224603559</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.048495663551508</v>
+        <v>1.048155266284616</v>
       </c>
       <c r="J19">
-        <v>1.021981094406305</v>
+        <v>1.021509749062224</v>
       </c>
       <c r="K19">
-        <v>1.03448399508462</v>
+        <v>1.033822678337606</v>
       </c>
       <c r="L19">
-        <v>1.015884177163824</v>
+        <v>1.015770924922174</v>
       </c>
       <c r="M19">
-        <v>1.038472854116735</v>
+        <v>1.037986400787525</v>
       </c>
       <c r="N19">
-        <v>1.005712725503983</v>
+        <v>1.009699109624638</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.039589990929365</v>
+        <v>1.03920524619709</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.035528263973521</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.035076826957038</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021000582228905</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9912580987466287</v>
+        <v>0.9912766773661205</v>
       </c>
       <c r="D20">
-        <v>1.018385796010547</v>
+        <v>1.018160191523514</v>
       </c>
       <c r="E20">
-        <v>0.9988540174123152</v>
+        <v>0.999317661183255</v>
       </c>
       <c r="F20">
-        <v>1.02199861515037</v>
+        <v>1.021856487756797</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.047282027964881</v>
+        <v>1.047167840439619</v>
       </c>
       <c r="J20">
-        <v>1.019130215529202</v>
+        <v>1.019148059993004</v>
       </c>
       <c r="K20">
-        <v>1.03211287811168</v>
+        <v>1.031891059173913</v>
       </c>
       <c r="L20">
-        <v>1.012917047517603</v>
+        <v>1.013372519317037</v>
       </c>
       <c r="M20">
-        <v>1.03566536886511</v>
+        <v>1.035525604393874</v>
       </c>
       <c r="N20">
-        <v>1.005712725503983</v>
+        <v>1.009781698284326</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.036840097455327</v>
+        <v>1.036729488182477</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.033855735438318</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.033715444246377</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020341831881132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9838052588852747</v>
+        <v>0.9844191208172224</v>
       </c>
       <c r="D21">
-        <v>1.013357925963419</v>
+        <v>1.01371077243279</v>
       </c>
       <c r="E21">
-        <v>0.9926860123275207</v>
+        <v>0.9937405522139899</v>
       </c>
       <c r="F21">
-        <v>1.01705588453113</v>
+        <v>1.017360853963275</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.045218464241091</v>
+        <v>1.045396843926255</v>
       </c>
       <c r="J21">
-        <v>1.013996034645609</v>
+        <v>1.014583031636815</v>
       </c>
       <c r="K21">
-        <v>1.028090571815297</v>
+        <v>1.028436963923702</v>
       </c>
       <c r="L21">
-        <v>1.007807288073144</v>
+        <v>1.008841490105382</v>
       </c>
       <c r="M21">
-        <v>1.031721175721415</v>
+        <v>1.032020618861152</v>
       </c>
       <c r="N21">
-        <v>1.005712725503983</v>
+        <v>1.010338911748788</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.033677540505048</v>
+        <v>1.03391453190448</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.031015067145478</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.031276881556113</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.019465654775903</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9790239837034221</v>
+        <v>0.9800219627386348</v>
       </c>
       <c r="D22">
-        <v>1.010146968550745</v>
+        <v>1.010870665083855</v>
       </c>
       <c r="E22">
-        <v>0.9887463727063164</v>
+        <v>0.9901791749559218</v>
       </c>
       <c r="F22">
-        <v>1.013937092190371</v>
+        <v>1.014529342479701</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.043887686380593</v>
+        <v>1.044253277156735</v>
       </c>
       <c r="J22">
-        <v>1.010713263739969</v>
+        <v>1.011664763406486</v>
       </c>
       <c r="K22">
-        <v>1.025520056889462</v>
+        <v>1.02622980474236</v>
       </c>
       <c r="L22">
-        <v>1.004544111909055</v>
+        <v>1.005947727504077</v>
       </c>
       <c r="M22">
-        <v>1.029237417963939</v>
+        <v>1.029818362521691</v>
       </c>
       <c r="N22">
-        <v>1.005712725503983</v>
+        <v>1.01067819198903</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.031711791176389</v>
+        <v>1.032171575388161</v>
       </c>
       <c r="Q22">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R22">
-        <v>1.029184018130256</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.029701463513198</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.018906849620587</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9815432191070417</v>
+        <v>0.9823423518810251</v>
       </c>
       <c r="D23">
-        <v>1.011831528420163</v>
+        <v>1.012362249506503</v>
       </c>
       <c r="E23">
-        <v>0.990812894915747</v>
+        <v>0.9920518817230789</v>
       </c>
       <c r="F23">
-        <v>1.015577515420659</v>
+        <v>1.016020436770657</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.044585019259104</v>
+        <v>1.044853229127937</v>
       </c>
       <c r="J23">
-        <v>1.012435204432167</v>
+        <v>1.013198317781404</v>
       </c>
       <c r="K23">
-        <v>1.026864719102617</v>
+        <v>1.027385488308428</v>
       </c>
       <c r="L23">
-        <v>1.006251485086572</v>
+        <v>1.007465948870292</v>
       </c>
       <c r="M23">
-        <v>1.030540752849547</v>
+        <v>1.030975447479003</v>
       </c>
       <c r="N23">
-        <v>1.005712725503983</v>
+        <v>1.010446637671561</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.032743305371795</v>
+        <v>1.033087340696371</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.030125065270465</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.030507941106554</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019194769735759</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9912187218117821</v>
+        <v>0.9912668733433704</v>
       </c>
       <c r="D24">
-        <v>1.018326178232921</v>
+        <v>1.018122940718545</v>
       </c>
       <c r="E24">
-        <v>0.9987810822403133</v>
+        <v>0.9992829930301823</v>
       </c>
       <c r="F24">
-        <v>1.021907962203995</v>
+        <v>1.021784207914898</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.047243643753163</v>
+        <v>1.047140775554027</v>
       </c>
       <c r="J24">
-        <v>1.019059041026632</v>
+        <v>1.019105292340232</v>
       </c>
       <c r="K24">
-        <v>1.032038931511366</v>
+        <v>1.0318391002816</v>
       </c>
       <c r="L24">
-        <v>1.012829637307101</v>
+        <v>1.013322711825195</v>
       </c>
       <c r="M24">
-        <v>1.035560970670614</v>
+        <v>1.035439271629841</v>
       </c>
       <c r="N24">
-        <v>1.005712725503983</v>
+        <v>1.009776345404437</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.036716503338352</v>
+        <v>1.036620186191661</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.03377597195555</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.033648553463487</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020306609882985</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.001898245058096</v>
+        <v>1.001153815570397</v>
       </c>
       <c r="D25">
-        <v>1.025518010835775</v>
+        <v>1.024527030225148</v>
       </c>
       <c r="E25">
-        <v>1.007606989683959</v>
+        <v>1.007328630047393</v>
       </c>
       <c r="F25">
-        <v>1.028946092829772</v>
+        <v>1.028217166083357</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.050117839834514</v>
+        <v>1.049615355562956</v>
       </c>
       <c r="J25">
-        <v>1.026361894125895</v>
+        <v>1.025642411514174</v>
       </c>
       <c r="K25">
-        <v>1.037732698744062</v>
+        <v>1.036756163599068</v>
       </c>
       <c r="L25">
-        <v>1.020088353606208</v>
+        <v>1.019814233852353</v>
       </c>
       <c r="M25">
-        <v>1.041111081742147</v>
+        <v>1.040392687532889</v>
       </c>
       <c r="N25">
-        <v>1.005712725503983</v>
+        <v>1.009712335287388</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.041109053845856</v>
+        <v>1.040540493252151</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.03779889079879</v>
+        <v>1.037121964037478</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021521542900021</v>
       </c>
     </row>
   </sheetData>
